--- a/Data/HP_newcostmatrix.xlsx
+++ b/Data/HP_newcostmatrix.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR70"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:70">
+    <row r="1" spans="1:68">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -574,14 +574,8 @@
       <c r="BP1" s="1">
         <v>66</v>
       </c>
-      <c r="BQ1" s="1">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1">
-        <v>68</v>
-      </c>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2" spans="1:68">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -757,43 +751,37 @@
         <v>610.3233530311503</v>
       </c>
       <c r="BG2">
-        <v>1054.70544396366</v>
+        <v>997.047666372817</v>
       </c>
       <c r="BH2">
+        <v>1363.065919964858</v>
+      </c>
+      <c r="BI2">
+        <v>195.8612029609603</v>
+      </c>
+      <c r="BJ2">
+        <v>186.7014009390883</v>
+      </c>
+      <c r="BK2">
+        <v>883.3742828612824</v>
+      </c>
+      <c r="BL2">
         <v>884.664060168103</v>
       </c>
-      <c r="BI2">
+      <c r="BM2">
         <v>711.6425909570174</v>
       </c>
-      <c r="BJ2">
-        <v>1363.065919964858</v>
-      </c>
-      <c r="BK2">
-        <v>916.2528796068528</v>
-      </c>
-      <c r="BL2">
-        <v>195.8612029609603</v>
-      </c>
-      <c r="BM2">
-        <v>186.7014009390883</v>
-      </c>
       <c r="BN2">
-        <v>1221.590840771053</v>
+        <v>444.4807380341777</v>
       </c>
       <c r="BO2">
-        <v>1180.60240250832</v>
+        <v>1069.673829671946</v>
       </c>
       <c r="BP2">
-        <v>444.4807380341777</v>
-      </c>
-      <c r="BQ2">
-        <v>1034.808647551286</v>
-      </c>
-      <c r="BR2">
-        <v>621.4062436280211</v>
+        <v>875.3326860551396</v>
       </c>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:68">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -969,43 +957,37 @@
         <v>1353.953085906904</v>
       </c>
       <c r="BG3">
-        <v>509.1030413114087</v>
+        <v>245.3690125066247</v>
       </c>
       <c r="BH3">
+        <v>1557.798839443529</v>
+      </c>
+      <c r="BI3">
+        <v>852.4922587104772</v>
+      </c>
+      <c r="BJ3">
+        <v>848.2048662336437</v>
+      </c>
+      <c r="BK3">
+        <v>1660.38437894131</v>
+      </c>
+      <c r="BL3">
         <v>1701.700778929946</v>
       </c>
-      <c r="BI3">
+      <c r="BM3">
         <v>1359.186268835023</v>
       </c>
-      <c r="BJ3">
-        <v>1557.798839443529</v>
-      </c>
-      <c r="BK3">
-        <v>1466.768815349677</v>
-      </c>
-      <c r="BL3">
-        <v>852.4922587104772</v>
-      </c>
-      <c r="BM3">
-        <v>848.2048662336437</v>
-      </c>
       <c r="BN3">
-        <v>359.766004432743</v>
+        <v>973.9035770057666</v>
       </c>
       <c r="BO3">
-        <v>1749.66684561782</v>
+        <v>346.7223726644927</v>
       </c>
       <c r="BP3">
-        <v>973.9035770057666</v>
-      </c>
-      <c r="BQ3">
-        <v>387.1126308176733</v>
-      </c>
-      <c r="BR3">
-        <v>268.1261509225145</v>
+        <v>281.8557466496166</v>
       </c>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:68">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1181,43 +1163,37 @@
         <v>1331.174115168091</v>
       </c>
       <c r="BG4">
-        <v>402.0904218912002</v>
+        <v>143.0153908154966</v>
       </c>
       <c r="BH4">
+        <v>1472.071185163569</v>
+      </c>
+      <c r="BI4">
+        <v>847.2014612310888</v>
+      </c>
+      <c r="BJ4">
+        <v>844.1581552736816</v>
+      </c>
+      <c r="BK4">
+        <v>1711.133888770406</v>
+      </c>
+      <c r="BL4">
         <v>1745.652159462123</v>
       </c>
-      <c r="BI4">
+      <c r="BM4">
         <v>1323.028818825464</v>
       </c>
-      <c r="BJ4">
-        <v>1472.071185163569</v>
-      </c>
-      <c r="BK4">
-        <v>1541.215483588659</v>
-      </c>
-      <c r="BL4">
-        <v>847.2014612310888</v>
-      </c>
-      <c r="BM4">
-        <v>844.1581552736816</v>
-      </c>
       <c r="BN4">
-        <v>409.3115899139012</v>
+        <v>1036.697943582787</v>
       </c>
       <c r="BO4">
-        <v>1825.787099477719</v>
+        <v>443.7873384529037</v>
       </c>
       <c r="BP4">
-        <v>1036.697943582787</v>
-      </c>
-      <c r="BQ4">
-        <v>490.4630131188837</v>
-      </c>
-      <c r="BR4">
-        <v>304.4883387520674</v>
+        <v>388.5957527578344</v>
       </c>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:68">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1393,43 +1369,37 @@
         <v>1433.119830864748</v>
       </c>
       <c r="BG5">
-        <v>572.0285854353685</v>
+        <v>296.0485124358049</v>
       </c>
       <c r="BH5">
+        <v>1642.817312299107</v>
+      </c>
+      <c r="BI5">
+        <v>926.2958504795744</v>
+      </c>
+      <c r="BJ5">
+        <v>921.5019160269751</v>
+      </c>
+      <c r="BK5">
+        <v>1696.345260234042</v>
+      </c>
+      <c r="BL5">
         <v>1743.127858202619</v>
       </c>
-      <c r="BI5">
+      <c r="BM5">
         <v>1442.363629012531</v>
       </c>
-      <c r="BJ5">
-        <v>1642.817312299107</v>
-      </c>
-      <c r="BK5">
-        <v>1480.026153331764</v>
-      </c>
-      <c r="BL5">
-        <v>926.2958504795744</v>
-      </c>
-      <c r="BM5">
-        <v>921.5019160269751</v>
-      </c>
       <c r="BN5">
-        <v>279.3347441312129</v>
+        <v>1001.829226493454</v>
       </c>
       <c r="BO5">
-        <v>1760.219476679308</v>
+        <v>266.9479503556051</v>
       </c>
       <c r="BP5">
-        <v>1001.829226493454</v>
-      </c>
-      <c r="BQ5">
-        <v>316.7267184865037</v>
-      </c>
-      <c r="BR5">
-        <v>331.3872858469886</v>
+        <v>242.8607949358861</v>
       </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:68">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1605,43 +1575,37 @@
         <v>1209.424505553317</v>
       </c>
       <c r="BG6">
-        <v>703.4699803101049</v>
+        <v>487.2087115273346</v>
       </c>
       <c r="BH6">
+        <v>1593.418736434507</v>
+      </c>
+      <c r="BI6">
+        <v>686.8802471349215</v>
+      </c>
+      <c r="BJ6">
+        <v>680.0964184019164</v>
+      </c>
+      <c r="BK6">
+        <v>1395.977117117921</v>
+      </c>
+      <c r="BL6">
         <v>1442.635843638822</v>
       </c>
-      <c r="BI6">
+      <c r="BM6">
         <v>1246.624384541759</v>
       </c>
-      <c r="BJ6">
-        <v>1593.418736434507</v>
-      </c>
-      <c r="BK6">
-        <v>1196.667606932013</v>
-      </c>
-      <c r="BL6">
-        <v>686.8802471349215</v>
-      </c>
-      <c r="BM6">
-        <v>680.0964184019164</v>
-      </c>
       <c r="BN6">
-        <v>552.0944177793099</v>
+        <v>704.2541342233352</v>
       </c>
       <c r="BO6">
-        <v>1480.27952496301</v>
+        <v>402.3404655757599</v>
       </c>
       <c r="BP6">
-        <v>704.2541342233352</v>
-      </c>
-      <c r="BQ6">
-        <v>384.5344932398114</v>
-      </c>
-      <c r="BR6">
-        <v>134.6174600988821</v>
+        <v>216.5281335864917</v>
       </c>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:68">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1817,43 +1781,37 @@
         <v>1283.778293398791</v>
       </c>
       <c r="BG7">
-        <v>388.6213720377262</v>
+        <v>155.3083677808127</v>
       </c>
       <c r="BH7">
+        <v>1433.284261670558</v>
+      </c>
+      <c r="BI7">
+        <v>801.8222855777395</v>
+      </c>
+      <c r="BJ7">
+        <v>798.964427157464</v>
+      </c>
+      <c r="BK7">
+        <v>1678.737757096997</v>
+      </c>
+      <c r="BL7">
         <v>1710.840768191607</v>
       </c>
-      <c r="BI7">
+      <c r="BM7">
         <v>1275.291749450796</v>
       </c>
-      <c r="BJ7">
-        <v>1433.284261670558</v>
-      </c>
-      <c r="BK7">
-        <v>1519.598592847084</v>
-      </c>
-      <c r="BL7">
-        <v>801.8222855777395</v>
-      </c>
-      <c r="BM7">
-        <v>798.964427157464</v>
-      </c>
       <c r="BN7">
-        <v>455.0421679207497</v>
+        <v>1010.164530176827</v>
       </c>
       <c r="BO7">
-        <v>1804.830358130287</v>
+        <v>475.1142945936327</v>
       </c>
       <c r="BP7">
-        <v>1010.164530176827</v>
-      </c>
-      <c r="BQ7">
-        <v>516.2034120169214</v>
-      </c>
-      <c r="BR7">
-        <v>273.8122750699955</v>
+        <v>401.8022265801152</v>
       </c>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:68">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2029,43 +1987,37 @@
         <v>1330.547577454906</v>
       </c>
       <c r="BG8">
-        <v>433.6088527766202</v>
+        <v>175.0508078925432</v>
       </c>
       <c r="BH8">
+        <v>1493.210849219412</v>
+      </c>
+      <c r="BI8">
+        <v>840.697287177625</v>
+      </c>
+      <c r="BJ8">
+        <v>837.2759328018102</v>
+      </c>
+      <c r="BK8">
+        <v>1689.680848533339</v>
+      </c>
+      <c r="BL8">
         <v>1725.976885747816</v>
       </c>
-      <c r="BI8">
+      <c r="BM8">
         <v>1326.662909002822</v>
       </c>
-      <c r="BJ8">
-        <v>1493.210849219412</v>
-      </c>
-      <c r="BK8">
-        <v>1513.959249155139</v>
-      </c>
-      <c r="BL8">
-        <v>840.697287177625</v>
-      </c>
-      <c r="BM8">
-        <v>837.2759328018102</v>
-      </c>
       <c r="BN8">
-        <v>397.9578193491524</v>
+        <v>1011.952212190491</v>
       </c>
       <c r="BO8">
-        <v>1798.206702812478</v>
+        <v>417.1524477640356</v>
       </c>
       <c r="BP8">
-        <v>1011.952212190491</v>
-      </c>
-      <c r="BQ8">
-        <v>461.2946322894687</v>
-      </c>
-      <c r="BR8">
-        <v>283.9887797343327</v>
+        <v>356.4128658646335</v>
       </c>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:68">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2241,43 +2193,37 @@
         <v>1405.793273193036</v>
       </c>
       <c r="BG9">
-        <v>237.977716635755</v>
+        <v>72.62918387812691</v>
       </c>
       <c r="BH9">
+        <v>1391.862569598407</v>
+      </c>
+      <c r="BI9">
+        <v>963.5372908596964</v>
+      </c>
+      <c r="BJ9">
+        <v>962.5530596779943</v>
+      </c>
+      <c r="BK9">
+        <v>1892.988275316412</v>
+      </c>
+      <c r="BL9">
         <v>1919.356395785144</v>
       </c>
-      <c r="BI9">
+      <c r="BM9">
         <v>1371.408505867791</v>
       </c>
-      <c r="BJ9">
-        <v>1391.862569598407</v>
-      </c>
-      <c r="BK9">
-        <v>1746.375486600122</v>
-      </c>
-      <c r="BL9">
-        <v>963.5372908596964</v>
-      </c>
-      <c r="BM9">
-        <v>962.5530596779943</v>
-      </c>
       <c r="BN9">
-        <v>489.1587481930538</v>
+        <v>1233.979914218695</v>
       </c>
       <c r="BO9">
-        <v>2031.804640597185</v>
+        <v>608.9088984949219</v>
       </c>
       <c r="BP9">
-        <v>1233.979914218695</v>
-      </c>
-      <c r="BQ9">
-        <v>670.2260631001438</v>
-      </c>
-      <c r="BR9">
-        <v>497.0419249226699</v>
+        <v>593.3458260415675</v>
       </c>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:68">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2453,43 +2399,37 @@
         <v>1597.139521781186</v>
       </c>
       <c r="BG10">
-        <v>394.3662935764926</v>
+        <v>229.9911968007829</v>
       </c>
       <c r="BH10">
+        <v>1561.081293424707</v>
+      </c>
+      <c r="BI10">
+        <v>1142.996794041617</v>
+      </c>
+      <c r="BJ10">
+        <v>1141.259117788528</v>
+      </c>
+      <c r="BK10">
+        <v>2032.812953807398</v>
+      </c>
+      <c r="BL10">
         <v>2067.295975715801</v>
       </c>
-      <c r="BI10">
+      <c r="BM10">
         <v>1565.46664677748</v>
       </c>
-      <c r="BJ10">
-        <v>1561.081293424707</v>
-      </c>
-      <c r="BK10">
-        <v>1850.65722217864</v>
-      </c>
-      <c r="BL10">
-        <v>1142.996794041617</v>
-      </c>
-      <c r="BM10">
-        <v>1141.259117788528</v>
-      </c>
       <c r="BN10">
-        <v>386.0059545403765</v>
+        <v>1354.512967436215</v>
       </c>
       <c r="BO10">
-        <v>2133.397988342114</v>
+        <v>574.9702278694658</v>
       </c>
       <c r="BP10">
-        <v>1354.512967436215</v>
-      </c>
-      <c r="BQ10">
-        <v>650.34240808982</v>
-      </c>
-      <c r="BR10">
-        <v>626.248006127884</v>
+        <v>622.3797869874658</v>
       </c>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:68">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2665,43 +2605,37 @@
         <v>1233.628527752419</v>
       </c>
       <c r="BG11">
-        <v>161.0349510297748</v>
+        <v>178.0418445933017</v>
       </c>
       <c r="BH11">
+        <v>1230.347320607757</v>
+      </c>
+      <c r="BI11">
+        <v>813.3573798812506</v>
+      </c>
+      <c r="BJ11">
+        <v>813.5903516547797</v>
+      </c>
+      <c r="BK11">
+        <v>1787.561584301382</v>
+      </c>
+      <c r="BL11">
         <v>1804.241628585486</v>
       </c>
-      <c r="BI11">
+      <c r="BM11">
         <v>1193.282061888619</v>
       </c>
-      <c r="BJ11">
-        <v>1230.347320607757</v>
-      </c>
-      <c r="BK11">
-        <v>1681.93428129321</v>
-      </c>
-      <c r="BL11">
-        <v>813.3573798812506</v>
-      </c>
-      <c r="BM11">
-        <v>813.5903516547797</v>
-      </c>
       <c r="BN11">
-        <v>636.3547532521233</v>
+        <v>1157.902523535575</v>
       </c>
       <c r="BO11">
-        <v>1967.939085959153</v>
+        <v>705.8934211529389</v>
       </c>
       <c r="BP11">
-        <v>1157.902523535575</v>
-      </c>
-      <c r="BQ11">
-        <v>752.8053018834038</v>
-      </c>
-      <c r="BR11">
-        <v>443.2694238716958</v>
+        <v>640.5593784610419</v>
       </c>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:68">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2877,43 +2811,37 @@
         <v>937.3987814850054</v>
       </c>
       <c r="BG12">
-        <v>1180.692084707023</v>
+        <v>1041.388710935558</v>
       </c>
       <c r="BH12">
+        <v>1688.531890945276</v>
+      </c>
+      <c r="BI12">
+        <v>519.428549453612</v>
+      </c>
+      <c r="BJ12">
+        <v>509.0052074122074</v>
+      </c>
+      <c r="BK12">
+        <v>800.0381752860058</v>
+      </c>
+      <c r="BL12">
         <v>850.3744864772681</v>
       </c>
-      <c r="BI12">
+      <c r="BM12">
         <v>1051.898826472492</v>
       </c>
-      <c r="BJ12">
-        <v>1688.531890945276</v>
-      </c>
-      <c r="BK12">
-        <v>661.8984315048351</v>
-      </c>
-      <c r="BL12">
-        <v>519.428549453612</v>
-      </c>
-      <c r="BM12">
-        <v>509.0052074122074</v>
-      </c>
       <c r="BN12">
-        <v>1130.558985542887</v>
+        <v>133.6379608907166</v>
       </c>
       <c r="BO12">
-        <v>945.7351374000242</v>
+        <v>927.0831229492069</v>
       </c>
       <c r="BP12">
-        <v>133.6379608907166</v>
-      </c>
-      <c r="BQ12">
-        <v>870.479750499576</v>
-      </c>
-      <c r="BR12">
-        <v>615.3777366815825</v>
+        <v>739.4148296763145</v>
       </c>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:68">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3089,43 +3017,37 @@
         <v>1026.543092199384</v>
       </c>
       <c r="BG13">
-        <v>1329.975406726601</v>
+        <v>1179.344799024548</v>
       </c>
       <c r="BH13">
+        <v>1827.288011176315</v>
+      </c>
+      <c r="BI13">
+        <v>655.2851442800174</v>
+      </c>
+      <c r="BJ13">
+        <v>645.1283854531215</v>
+      </c>
+      <c r="BK13">
+        <v>695.8790240373536</v>
+      </c>
+      <c r="BL13">
         <v>763.7364115487858</v>
       </c>
-      <c r="BI13">
+      <c r="BM13">
         <v>1155.531978068436</v>
       </c>
-      <c r="BJ13">
-        <v>1827.288011176315</v>
-      </c>
-      <c r="BK13">
-        <v>508.7610730516744</v>
-      </c>
-      <c r="BL13">
-        <v>655.2851442800174</v>
-      </c>
-      <c r="BM13">
-        <v>645.1283854531215</v>
-      </c>
       <c r="BN13">
-        <v>1230.23820810282</v>
+        <v>23.11806531000909</v>
       </c>
       <c r="BO13">
-        <v>793.7071305310558</v>
+        <v>1011.440355481226</v>
       </c>
       <c r="BP13">
-        <v>23.11806531000909</v>
-      </c>
-      <c r="BQ13">
-        <v>946.8877902439565</v>
-      </c>
-      <c r="BR13">
-        <v>752.7420169045362</v>
+        <v>833.3799800980446</v>
       </c>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:68">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3301,43 +3223,37 @@
         <v>1014.257742740249</v>
       </c>
       <c r="BG14">
-        <v>1254.608980814834</v>
+        <v>1101.893847637276</v>
       </c>
       <c r="BH14">
+        <v>1781.394205713586</v>
+      </c>
+      <c r="BI14">
+        <v>611.4349415036526</v>
+      </c>
+      <c r="BJ14">
+        <v>601.0523170149982</v>
+      </c>
+      <c r="BK14">
+        <v>766.9760667998091</v>
+      </c>
+      <c r="BL14">
         <v>829.7429378331759</v>
       </c>
-      <c r="BI14">
+      <c r="BM14">
         <v>1134.718536872503</v>
       </c>
-      <c r="BJ14">
-        <v>1781.394205713586</v>
-      </c>
-      <c r="BK14">
-        <v>582.9636017534133</v>
-      </c>
-      <c r="BL14">
-        <v>611.4349415036526</v>
-      </c>
-      <c r="BM14">
-        <v>601.0523170149982</v>
-      </c>
       <c r="BN14">
-        <v>1157.485127094222</v>
+        <v>65.00493880913098</v>
       </c>
       <c r="BO14">
-        <v>868.5741173677112</v>
+        <v>942.1825315390148</v>
       </c>
       <c r="BP14">
-        <v>65.00493880913098</v>
-      </c>
-      <c r="BQ14">
-        <v>879.7016047910656</v>
-      </c>
-      <c r="BR14">
-        <v>675.3365699006796</v>
+        <v>761.3762287572567</v>
       </c>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:68">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3513,43 +3429,37 @@
         <v>1341.528688455995</v>
       </c>
       <c r="BG15">
-        <v>1943.120768944666</v>
+        <v>1795.607542206995</v>
       </c>
       <c r="BH15">
+        <v>2291.519972519654</v>
+      </c>
+      <c r="BI15">
+        <v>1165.86120200216</v>
+      </c>
+      <c r="BJ15">
+        <v>1157.569761778096</v>
+      </c>
+      <c r="BK15">
+        <v>350.7424359329842</v>
+      </c>
+      <c r="BL15">
         <v>477.1729449657549</v>
       </c>
-      <c r="BI15">
+      <c r="BM15">
         <v>1507.140087380782</v>
       </c>
-      <c r="BJ15">
-        <v>2291.519972519654</v>
-      </c>
-      <c r="BK15">
-        <v>163.2698404735119</v>
-      </c>
-      <c r="BL15">
-        <v>1165.86120200216</v>
-      </c>
-      <c r="BM15">
-        <v>1157.569761778096</v>
-      </c>
       <c r="BN15">
-        <v>1808.002832952185</v>
+        <v>633.6633559695043</v>
       </c>
       <c r="BO15">
-        <v>216.4542220828988</v>
+        <v>1571.944985002995</v>
       </c>
       <c r="BP15">
-        <v>633.6633559695043</v>
-      </c>
-      <c r="BQ15">
-        <v>1497.649390120326</v>
-      </c>
-      <c r="BR15">
-        <v>1369.287858177844</v>
+        <v>1413.261873937609</v>
       </c>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:68">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3725,43 +3635,37 @@
         <v>1457.22112226636</v>
       </c>
       <c r="BG16">
-        <v>1994.999288789096</v>
+        <v>1832.783107710271</v>
       </c>
       <c r="BH16">
+        <v>2394.334836875984</v>
+      </c>
+      <c r="BI16">
+        <v>1253.817730542188</v>
+      </c>
+      <c r="BJ16">
+        <v>1245.055241662157</v>
+      </c>
+      <c r="BK16">
+        <v>475.0166406504185</v>
+      </c>
+      <c r="BL16">
         <v>601.1618787444638</v>
       </c>
-      <c r="BI16">
+      <c r="BM16">
         <v>1620.678432823412</v>
       </c>
-      <c r="BJ16">
-        <v>2394.334836875984</v>
-      </c>
-      <c r="BK16">
-        <v>158.1479595420723</v>
-      </c>
-      <c r="BL16">
-        <v>1253.817730542188</v>
-      </c>
-      <c r="BM16">
-        <v>1245.055241662157</v>
-      </c>
       <c r="BN16">
-        <v>1813.309821528407</v>
+        <v>684.9509788719952</v>
       </c>
       <c r="BO16">
-        <v>128.1708935512152</v>
+        <v>1571.913335879728</v>
       </c>
       <c r="BP16">
-        <v>684.9509788719952</v>
-      </c>
-      <c r="BQ16">
-        <v>1494.831831345695</v>
-      </c>
-      <c r="BR16">
-        <v>1409.124141022815</v>
+        <v>1423.443362994366</v>
       </c>
     </row>
-    <row r="17" spans="1:70">
+    <row r="17" spans="1:68">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3937,43 +3841,37 @@
         <v>1457.026371440645</v>
       </c>
       <c r="BG17">
-        <v>2116.38902660945</v>
+        <v>1971.054871486837</v>
       </c>
       <c r="BH17">
+        <v>2428.019000270091</v>
+      </c>
+      <c r="BI17">
+        <v>1322.333620232733</v>
+      </c>
+      <c r="BJ17">
+        <v>1314.473630567229</v>
+      </c>
+      <c r="BK17">
+        <v>386.8104419625186</v>
+      </c>
+      <c r="BL17">
         <v>502.3850567774526</v>
       </c>
-      <c r="BI17">
+      <c r="BM17">
         <v>1626.790442310934</v>
       </c>
-      <c r="BJ17">
-        <v>2428.019000270091</v>
-      </c>
-      <c r="BK17">
-        <v>320.3913462133663</v>
-      </c>
-      <c r="BL17">
-        <v>1322.333620232733</v>
-      </c>
-      <c r="BM17">
-        <v>1314.473630567229</v>
-      </c>
       <c r="BN17">
-        <v>1979.959966694061</v>
+        <v>808.506427460537</v>
       </c>
       <c r="BO17">
-        <v>155.2855232372004</v>
+        <v>1742.190246496454</v>
       </c>
       <c r="BP17">
-        <v>808.506427460537</v>
-      </c>
-      <c r="BQ17">
-        <v>1666.905293864552</v>
-      </c>
-      <c r="BR17">
-        <v>1544.649817828112</v>
+        <v>1586.19423963258</v>
       </c>
     </row>
-    <row r="18" spans="1:70">
+    <row r="18" spans="1:68">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4149,43 +4047,37 @@
         <v>1436.917999881163</v>
       </c>
       <c r="BG18">
-        <v>2081.2820991833</v>
+        <v>1934.718064937742</v>
       </c>
       <c r="BH18">
+        <v>2403.323618201605</v>
+      </c>
+      <c r="BI18">
+        <v>1292.256990627331</v>
+      </c>
+      <c r="BJ18">
+        <v>1284.280436759904</v>
+      </c>
+      <c r="BK18">
+        <v>379.2013315560839</v>
+      </c>
+      <c r="BL18">
         <v>498.6764094174754</v>
       </c>
-      <c r="BI18">
+      <c r="BM18">
         <v>1605.839984841346</v>
       </c>
-      <c r="BJ18">
-        <v>2403.323618201605</v>
-      </c>
-      <c r="BK18">
-        <v>283.5077884078405</v>
-      </c>
-      <c r="BL18">
-        <v>1292.256990627331</v>
-      </c>
-      <c r="BM18">
-        <v>1284.280436759904</v>
-      </c>
       <c r="BN18">
-        <v>1942.690329001119</v>
+        <v>772.6005555114455</v>
       </c>
       <c r="BO18">
-        <v>147.3921995036304</v>
+        <v>1704.968237658197</v>
       </c>
       <c r="BP18">
-        <v>772.6005555114455</v>
-      </c>
-      <c r="BQ18">
-        <v>1629.730832981391</v>
-      </c>
-      <c r="BR18">
-        <v>1508.398981740221</v>
+        <v>1548.929214007561</v>
       </c>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:68">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4361,43 +4253,37 @@
         <v>1445.428512522688</v>
       </c>
       <c r="BG19">
-        <v>2113.705422484544</v>
+        <v>1970.221403201585</v>
       </c>
       <c r="BH19">
+        <v>2418.144006797737</v>
+      </c>
+      <c r="BI19">
+        <v>1315.40540789314</v>
+      </c>
+      <c r="BJ19">
+        <v>1307.621799793325</v>
+      </c>
+      <c r="BK19">
+        <v>372.3834106138758</v>
+      </c>
+      <c r="BL19">
         <v>487.2746597655182</v>
       </c>
-      <c r="BI19">
+      <c r="BM19">
         <v>1615.471585001402</v>
       </c>
-      <c r="BJ19">
-        <v>2418.144006797737</v>
-      </c>
-      <c r="BK19">
-        <v>325.4528365527249</v>
-      </c>
-      <c r="BL19">
-        <v>1315.40540789314</v>
-      </c>
-      <c r="BM19">
-        <v>1307.621799793325</v>
-      </c>
       <c r="BN19">
-        <v>1982.810964629049</v>
+        <v>807.0846362137572</v>
       </c>
       <c r="BO19">
-        <v>170.9385300207406</v>
+        <v>1745.671849475585</v>
       </c>
       <c r="BP19">
-        <v>807.0846362137572</v>
-      </c>
-      <c r="BQ19">
-        <v>1670.702962661739</v>
-      </c>
-      <c r="BR19">
-        <v>1543.684613722091</v>
+        <v>1588.588022916834</v>
       </c>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:68">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4573,43 +4459,37 @@
         <v>1461.173629183598</v>
       </c>
       <c r="BG20">
-        <v>2033.082897982574</v>
+        <v>1875.221441706019</v>
       </c>
       <c r="BH20">
+        <v>2408.76541096878</v>
+      </c>
+      <c r="BI20">
+        <v>1276.662813174628</v>
+      </c>
+      <c r="BJ20">
+        <v>1268.135195719774</v>
+      </c>
+      <c r="BK20">
+        <v>449.2142048790022</v>
+      </c>
+      <c r="BL20">
         <v>574.0517911549075</v>
       </c>
-      <c r="BI20">
+      <c r="BM20">
         <v>1626.666452496092</v>
       </c>
-      <c r="BJ20">
-        <v>2408.76541096878</v>
-      </c>
-      <c r="BK20">
-        <v>202.1208233013987</v>
-      </c>
-      <c r="BL20">
-        <v>1276.662813174628</v>
-      </c>
-      <c r="BM20">
-        <v>1268.135195719774</v>
-      </c>
       <c r="BN20">
-        <v>1862.883879339408</v>
+        <v>721.7219235503345</v>
       </c>
       <c r="BO20">
-        <v>98.7508434309066</v>
+        <v>1622.288807551066</v>
       </c>
       <c r="BP20">
-        <v>721.7219235503345</v>
-      </c>
-      <c r="BQ20">
-        <v>1545.609546425498</v>
-      </c>
-      <c r="BR20">
-        <v>1450.568619378334</v>
+        <v>1471.937605663018</v>
       </c>
     </row>
-    <row r="21" spans="1:70">
+    <row r="21" spans="1:68">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4785,43 +4665,37 @@
         <v>1759.287126373421</v>
       </c>
       <c r="BG21">
-        <v>884.913869014701</v>
+        <v>608.4705202118429</v>
       </c>
       <c r="BH21">
+        <v>1998.108561003365</v>
+      </c>
+      <c r="BI21">
+        <v>1239.907576955421</v>
+      </c>
+      <c r="BJ21">
+        <v>1233.631829044787</v>
+      </c>
+      <c r="BK21">
+        <v>1862.480377176348</v>
+      </c>
+      <c r="BL21">
         <v>1928.88262363035</v>
       </c>
-      <c r="BI21">
+      <c r="BM21">
         <v>1783.048785129218</v>
       </c>
-      <c r="BJ21">
-        <v>1998.108561003365</v>
-      </c>
-      <c r="BK21">
-        <v>1565.159550090287</v>
-      </c>
-      <c r="BL21">
-        <v>1239.907576955421</v>
-      </c>
-      <c r="BM21">
-        <v>1233.631829044787</v>
-      </c>
       <c r="BN21">
-        <v>181.7274649317361</v>
+        <v>1162.381024826243</v>
       </c>
       <c r="BO21">
-        <v>1826.78795321761</v>
+        <v>160.4465130983236</v>
       </c>
       <c r="BP21">
-        <v>1162.381024826243</v>
-      </c>
-      <c r="BQ21">
-        <v>221.0870145999965</v>
-      </c>
-      <c r="BR21">
-        <v>646.1519116770977</v>
+        <v>354.7885270290858</v>
       </c>
     </row>
-    <row r="22" spans="1:70">
+    <row r="22" spans="1:68">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4997,43 +4871,37 @@
         <v>1647.090774613427</v>
       </c>
       <c r="BG22">
-        <v>682.0580348187676</v>
+        <v>409.3905607852796</v>
       </c>
       <c r="BH22">
+        <v>1811.550959051569</v>
+      </c>
+      <c r="BI22">
+        <v>1140.065653795217</v>
+      </c>
+      <c r="BJ22">
+        <v>1135.143293815972</v>
+      </c>
+      <c r="BK22">
+        <v>1871.213145122385</v>
+      </c>
+      <c r="BL22">
         <v>1925.562771150913</v>
       </c>
-      <c r="BI22">
+      <c r="BM22">
         <v>1653.917077628037</v>
       </c>
-      <c r="BJ22">
-        <v>1811.550959051569</v>
-      </c>
-      <c r="BK22">
-        <v>1619.235773552512</v>
-      </c>
-      <c r="BL22">
-        <v>1140.065653795217</v>
-      </c>
-      <c r="BM22">
-        <v>1135.143293815972</v>
-      </c>
       <c r="BN22">
-        <v>65.21900231899073</v>
+        <v>1169.956084851428</v>
       </c>
       <c r="BO22">
-        <v>1892.380846482479</v>
+        <v>226.5117219539912</v>
       </c>
       <c r="BP22">
-        <v>1169.956084851428</v>
-      </c>
-      <c r="BQ22">
-        <v>308.5785441131584</v>
-      </c>
-      <c r="BR22">
-        <v>543.1214136817222</v>
+        <v>349.3362755803038</v>
       </c>
     </row>
-    <row r="23" spans="1:70">
+    <row r="23" spans="1:68">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5209,43 +5077,37 @@
         <v>708.6123764560981</v>
       </c>
       <c r="BG23">
-        <v>783.6890413139854</v>
+        <v>738.5037773060362</v>
       </c>
       <c r="BH23">
+        <v>1233.80084998648</v>
+      </c>
+      <c r="BI23">
+        <v>190.3461656461427</v>
+      </c>
+      <c r="BJ23">
+        <v>185.380664335221</v>
+      </c>
+      <c r="BK23">
+        <v>1149.420135795328</v>
+      </c>
+      <c r="BL23">
         <v>1155.087307953641</v>
       </c>
-      <c r="BI23">
+      <c r="BM23">
         <v>750.0142203004176</v>
       </c>
-      <c r="BJ23">
-        <v>1233.80084998648</v>
-      </c>
-      <c r="BK23">
-        <v>1129.840313371112</v>
-      </c>
-      <c r="BL23">
-        <v>190.3461656461427</v>
-      </c>
-      <c r="BM23">
-        <v>185.380664335221</v>
-      </c>
       <c r="BN23">
-        <v>1014.653143399737</v>
+        <v>612.2475057228771</v>
       </c>
       <c r="BO23">
-        <v>1406.745271505975</v>
+        <v>902.0435164599671</v>
       </c>
       <c r="BP23">
-        <v>612.2475057228771</v>
-      </c>
-      <c r="BQ23">
-        <v>884.9870945386531</v>
-      </c>
-      <c r="BR23">
-        <v>408.7530204789524</v>
+        <v>717.3088186006637</v>
       </c>
     </row>
-    <row r="24" spans="1:70">
+    <row r="24" spans="1:68">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5421,43 +5283,37 @@
         <v>742.2081153318582</v>
       </c>
       <c r="BG24">
-        <v>690.690584183101</v>
+        <v>662.328871109186</v>
       </c>
       <c r="BH24">
+        <v>1176.443600805269</v>
+      </c>
+      <c r="BI24">
+        <v>251.2485098267865</v>
+      </c>
+      <c r="BJ24">
+        <v>249.6660860174658</v>
+      </c>
+      <c r="BK24">
+        <v>1245.565216415441</v>
+      </c>
+      <c r="BL24">
         <v>1249.75392383311</v>
       </c>
-      <c r="BI24">
+      <c r="BM24">
         <v>761.8634964138597</v>
       </c>
-      <c r="BJ24">
-        <v>1176.443600805269</v>
-      </c>
-      <c r="BK24">
-        <v>1221.868312529984</v>
-      </c>
-      <c r="BL24">
-        <v>251.2485098267865</v>
-      </c>
-      <c r="BM24">
-        <v>249.6660860174658</v>
-      </c>
       <c r="BN24">
-        <v>970.1680507184618</v>
+        <v>700.4811002457104</v>
       </c>
       <c r="BO24">
-        <v>1500.189933498288</v>
+        <v>879.4424627735349</v>
       </c>
       <c r="BP24">
-        <v>700.4811002457104</v>
-      </c>
-      <c r="BQ24">
-        <v>871.1660741019252</v>
-      </c>
-      <c r="BR24">
-        <v>376.7156663365799</v>
+        <v>703.4310889186071</v>
       </c>
     </row>
-    <row r="25" spans="1:70">
+    <row r="25" spans="1:68">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5633,43 +5489,37 @@
         <v>609.199567768963</v>
       </c>
       <c r="BG25">
-        <v>872.7122690595885</v>
+        <v>843.1859706674944</v>
       </c>
       <c r="BH25">
+        <v>1213.385035850192</v>
+      </c>
+      <c r="BI25">
+        <v>85.59533807713977</v>
+      </c>
+      <c r="BJ25">
+        <v>78.93393272049808</v>
+      </c>
+      <c r="BK25">
+        <v>1077.038176447182</v>
+      </c>
+      <c r="BL25">
         <v>1074.02664180166</v>
       </c>
-      <c r="BI25">
+      <c r="BM25">
         <v>664.14634846835</v>
       </c>
-      <c r="BJ25">
-        <v>1213.385035850192</v>
-      </c>
-      <c r="BK25">
-        <v>1097.44277849735</v>
-      </c>
-      <c r="BL25">
-        <v>85.59533807713977</v>
-      </c>
-      <c r="BM25">
-        <v>78.93393272049808</v>
-      </c>
       <c r="BN25">
-        <v>1121.947959962095</v>
+        <v>597.9459394575954</v>
       </c>
       <c r="BO25">
-        <v>1367.498097007698</v>
+        <v>1003.43997318293</v>
       </c>
       <c r="BP25">
-        <v>597.9459394575954</v>
-      </c>
-      <c r="BQ25">
-        <v>982.7376934263743</v>
-      </c>
-      <c r="BR25">
-        <v>515.0970318050553</v>
+        <v>815.8849633015492</v>
       </c>
     </row>
-    <row r="26" spans="1:70">
+    <row r="26" spans="1:68">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5845,43 +5695,37 @@
         <v>632.1040509825543</v>
       </c>
       <c r="BG26">
-        <v>784.6266706277471</v>
+        <v>773.3106971043676</v>
       </c>
       <c r="BH26">
+        <v>1145.070568421152</v>
+      </c>
+      <c r="BI26">
+        <v>141.9736948328132</v>
+      </c>
+      <c r="BJ26">
+        <v>142.251502164807</v>
+      </c>
+      <c r="BK26">
+        <v>1172.980467476584</v>
+      </c>
+      <c r="BL26">
         <v>1168.461046046294</v>
       </c>
-      <c r="BI26">
+      <c r="BM26">
         <v>661.8196985680489</v>
       </c>
-      <c r="BJ26">
-        <v>1145.070568421152</v>
-      </c>
-      <c r="BK26">
-        <v>1188.311478686784</v>
-      </c>
-      <c r="BL26">
-        <v>141.9736948328132</v>
-      </c>
-      <c r="BM26">
-        <v>142.251502164807</v>
-      </c>
       <c r="BN26">
-        <v>1081.45381886865</v>
+        <v>681.2218830004341</v>
       </c>
       <c r="BO26">
-        <v>1460.418355654846</v>
+        <v>982.4872280090259</v>
       </c>
       <c r="BP26">
-        <v>681.2218830004341</v>
-      </c>
-      <c r="BQ26">
-        <v>969.5935005477082</v>
-      </c>
-      <c r="BR26">
-        <v>482.4655056298339</v>
+        <v>801.5874740745116</v>
       </c>
     </row>
-    <row r="27" spans="1:70">
+    <row r="27" spans="1:68">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6057,43 +5901,37 @@
         <v>476.4861110652013</v>
       </c>
       <c r="BG27">
-        <v>865.1678845969466</v>
+        <v>898.9454538175071</v>
       </c>
       <c r="BH27">
+        <v>1023.827109311367</v>
+      </c>
+      <c r="BI27">
+        <v>148.6367094730563</v>
+      </c>
+      <c r="BJ27">
+        <v>158.6099156594182</v>
+      </c>
+      <c r="BK27">
+        <v>1178.17909143062</v>
+      </c>
+      <c r="BL27">
         <v>1155.413555245387</v>
       </c>
-      <c r="BI27">
+      <c r="BM27">
         <v>492.9682183206979</v>
       </c>
-      <c r="BJ27">
-        <v>1023.827109311367</v>
-      </c>
-      <c r="BK27">
-        <v>1258.326258966706</v>
-      </c>
-      <c r="BL27">
-        <v>148.6367094730563</v>
-      </c>
-      <c r="BM27">
-        <v>158.6099156594182</v>
-      </c>
       <c r="BN27">
-        <v>1237.601639699895</v>
+        <v>780.4950058718167</v>
       </c>
       <c r="BO27">
-        <v>1518.315746632483</v>
+        <v>1149.014119009315</v>
       </c>
       <c r="BP27">
-        <v>780.4950058718167</v>
-      </c>
-      <c r="BQ27">
-        <v>1138.15444796071</v>
-      </c>
-      <c r="BR27">
-        <v>646.8579662076676</v>
+        <v>970.1478464378022</v>
       </c>
     </row>
-    <row r="28" spans="1:70">
+    <row r="28" spans="1:68">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6269,43 +6107,37 @@
         <v>406.8532409461679</v>
       </c>
       <c r="BG28">
-        <v>1008.066483003928</v>
+        <v>1017.53023128522</v>
       </c>
       <c r="BH28">
+        <v>1129.549040485611</v>
+      </c>
+      <c r="BI28">
+        <v>117.9859666223188</v>
+      </c>
+      <c r="BJ28">
+        <v>124.8445048005489</v>
+      </c>
+      <c r="BK28">
+        <v>1027.675672888834</v>
+      </c>
+      <c r="BL28">
         <v>1001.330370885244</v>
       </c>
-      <c r="BI28">
+      <c r="BM28">
         <v>477.8932217738862</v>
       </c>
-      <c r="BJ28">
-        <v>1129.549040485611</v>
-      </c>
-      <c r="BK28">
-        <v>1135.923192469395</v>
-      </c>
-      <c r="BL28">
-        <v>117.9859666223188</v>
-      </c>
-      <c r="BM28">
-        <v>124.8445048005489</v>
-      </c>
       <c r="BN28">
-        <v>1321.20022881106</v>
+        <v>688.5144785931498</v>
       </c>
       <c r="BO28">
-        <v>1387.130860363598</v>
+        <v>1206.919403092181</v>
       </c>
       <c r="BP28">
-        <v>688.5144785931498</v>
-      </c>
-      <c r="BQ28">
-        <v>1185.876739776738</v>
-      </c>
-      <c r="BR28">
-        <v>716.1243812304746</v>
+        <v>1019.231338935013</v>
       </c>
     </row>
-    <row r="29" spans="1:70">
+    <row r="29" spans="1:68">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6481,43 +6313,37 @@
         <v>625.1963378345293</v>
       </c>
       <c r="BG29">
-        <v>723.9050376228531</v>
+        <v>748.2400485137985</v>
       </c>
       <c r="BH29">
+        <v>1046.110685585852</v>
+      </c>
+      <c r="BI29">
+        <v>212.5585702283693</v>
+      </c>
+      <c r="BJ29">
+        <v>217.3202768795286</v>
+      </c>
+      <c r="BK29">
+        <v>1264.782310855268</v>
+      </c>
+      <c r="BL29">
         <v>1254.28923226837</v>
       </c>
-      <c r="BI29">
+      <c r="BM29">
         <v>626.6041405400586</v>
       </c>
-      <c r="BJ29">
-        <v>1046.110685585852</v>
-      </c>
-      <c r="BK29">
-        <v>1293.235774054829</v>
-      </c>
-      <c r="BL29">
-        <v>212.5585702283693</v>
-      </c>
-      <c r="BM29">
-        <v>217.3202768795286</v>
-      </c>
       <c r="BN29">
-        <v>1093.97472994699</v>
+        <v>787.0836537626774</v>
       </c>
       <c r="BO29">
-        <v>1564.176624434621</v>
+        <v>1018.064184402429</v>
       </c>
       <c r="BP29">
-        <v>787.0836537626774</v>
-      </c>
-      <c r="BQ29">
-        <v>1013.294098261188</v>
-      </c>
-      <c r="BR29">
-        <v>515.1356114079551</v>
+        <v>846.0562037320598</v>
       </c>
     </row>
-    <row r="30" spans="1:70">
+    <row r="30" spans="1:68">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6693,43 +6519,37 @@
         <v>861.4583119582231</v>
       </c>
       <c r="BG30">
-        <v>1096.431237325342</v>
+        <v>1320.736433021667</v>
       </c>
       <c r="BH30">
+        <v>154.3497765054879</v>
+      </c>
+      <c r="BI30">
+        <v>1022.130362151231</v>
+      </c>
+      <c r="BJ30">
+        <v>1032.381886158383</v>
+      </c>
+      <c r="BK30">
+        <v>1938.515194882768</v>
+      </c>
+      <c r="BL30">
         <v>1878.791859167728</v>
       </c>
-      <c r="BI30">
+      <c r="BM30">
         <v>690.0739363765364</v>
       </c>
-      <c r="BJ30">
-        <v>154.3497765054879</v>
-      </c>
-      <c r="BK30">
-        <v>2110.709256069142</v>
-      </c>
-      <c r="BL30">
-        <v>1022.130362151231</v>
-      </c>
-      <c r="BM30">
-        <v>1032.381886158383</v>
-      </c>
       <c r="BN30">
-        <v>1775.176274303613</v>
+        <v>1654.130785129311</v>
       </c>
       <c r="BO30">
-        <v>2353.008852184749</v>
+        <v>1795.085394285433</v>
       </c>
       <c r="BP30">
-        <v>1654.130785129311</v>
-      </c>
-      <c r="BQ30">
-        <v>1817.042873350251</v>
-      </c>
-      <c r="BR30">
-        <v>1337.40547894484</v>
+        <v>1663.221056841328</v>
       </c>
     </row>
-    <row r="31" spans="1:70">
+    <row r="31" spans="1:68">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6905,43 +6725,37 @@
         <v>964.5972589846072</v>
       </c>
       <c r="BG31">
-        <v>1276.84386424946</v>
+        <v>1507.331504350612</v>
       </c>
       <c r="BH31">
+        <v>139.662290846286</v>
+      </c>
+      <c r="BI31">
+        <v>1188.470585045698</v>
+      </c>
+      <c r="BJ31">
+        <v>1198.883139299992</v>
+      </c>
+      <c r="BK31">
+        <v>2058.87709921736</v>
+      </c>
+      <c r="BL31">
         <v>1990.794068289061</v>
       </c>
-      <c r="BI31">
+      <c r="BM31">
         <v>790.2716637478502</v>
       </c>
-      <c r="BJ31">
-        <v>139.662290846286</v>
-      </c>
-      <c r="BK31">
-        <v>2258.948386977429</v>
-      </c>
-      <c r="BL31">
-        <v>1188.470585045698</v>
-      </c>
-      <c r="BM31">
-        <v>1198.883139299992</v>
-      </c>
       <c r="BN31">
-        <v>1963.182382832724</v>
+        <v>1817.903394358936</v>
       </c>
       <c r="BO31">
-        <v>2492.6726695803</v>
+        <v>1985.31772195963</v>
       </c>
       <c r="BP31">
-        <v>1817.903394358936</v>
-      </c>
-      <c r="BQ31">
-        <v>2007.286150522691</v>
-      </c>
-      <c r="BR31">
-        <v>1526.651671161181</v>
+        <v>1853.198396556765</v>
       </c>
     </row>
-    <row r="32" spans="1:70">
+    <row r="32" spans="1:68">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -7117,43 +6931,37 @@
         <v>865.4232441079175</v>
       </c>
       <c r="BG32">
-        <v>1076.639845820584</v>
+        <v>1302.037159732624</v>
       </c>
       <c r="BH32">
+        <v>157.7737680260061</v>
+      </c>
+      <c r="BI32">
+        <v>1015.024868005454</v>
+      </c>
+      <c r="BJ32">
+        <v>1025.229393668828</v>
+      </c>
+      <c r="BK32">
+        <v>1938.938021155598</v>
+      </c>
+      <c r="BL32">
         <v>1880.431998155716</v>
       </c>
-      <c r="BI32">
+      <c r="BM32">
         <v>694.9388520392203</v>
       </c>
-      <c r="BJ32">
-        <v>157.7737680260061</v>
-      </c>
-      <c r="BK32">
-        <v>2106.610121761337</v>
-      </c>
-      <c r="BL32">
-        <v>1015.024868005454</v>
-      </c>
-      <c r="BM32">
-        <v>1025.229393668828</v>
-      </c>
       <c r="BN32">
-        <v>1756.930659284379</v>
+        <v>1647.193181815159</v>
       </c>
       <c r="BO32">
-        <v>2350.302213077927</v>
+        <v>1778.415703144768</v>
       </c>
       <c r="BP32">
-        <v>1647.193181815159</v>
-      </c>
-      <c r="BQ32">
-        <v>1800.9430894739</v>
-      </c>
-      <c r="BR32">
-        <v>1322.595334219646</v>
+        <v>1647.653686745026</v>
       </c>
     </row>
-    <row r="33" spans="1:70">
+    <row r="33" spans="1:68">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -7329,43 +7137,37 @@
         <v>933.16662625049</v>
       </c>
       <c r="BG33">
-        <v>1100.865366389173</v>
+        <v>1334.680301537785</v>
       </c>
       <c r="BH33">
+        <v>91.5365342015964</v>
+      </c>
+      <c r="BI33">
+        <v>1080.731834364349</v>
+      </c>
+      <c r="BJ33">
+        <v>1090.881296104348</v>
+      </c>
+      <c r="BK33">
+        <v>2008.088157812222</v>
+      </c>
+      <c r="BL33">
         <v>1949.329627669907</v>
       </c>
-      <c r="BI33">
+      <c r="BM33">
         <v>762.0133815271196</v>
       </c>
-      <c r="BJ33">
-        <v>91.5365342015964</v>
-      </c>
-      <c r="BK33">
-        <v>2174.671847428844</v>
-      </c>
-      <c r="BL33">
-        <v>1080.731834364349</v>
-      </c>
-      <c r="BM33">
-        <v>1090.881296104348</v>
-      </c>
       <c r="BN33">
-        <v>1792.003072657228</v>
+        <v>1712.919267080712</v>
       </c>
       <c r="BO33">
-        <v>2419.037839607917</v>
+        <v>1821.403288472187</v>
       </c>
       <c r="BP33">
-        <v>1712.919267080712</v>
-      </c>
-      <c r="BQ33">
-        <v>1846.265021529858</v>
-      </c>
-      <c r="BR33">
-        <v>1372.809758301545</v>
+        <v>1695.06503651014</v>
       </c>
     </row>
-    <row r="34" spans="1:70">
+    <row r="34" spans="1:68">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -7541,43 +7343,37 @@
         <v>862.5034415029573</v>
       </c>
       <c r="BG34">
-        <v>1245.485234026864</v>
+        <v>1464.394862283666</v>
       </c>
       <c r="BH34">
+        <v>194.3080604984109</v>
+      </c>
+      <c r="BI34">
+        <v>1097.665164527991</v>
+      </c>
+      <c r="BJ34">
+        <v>1108.130174645411</v>
+      </c>
+      <c r="BK34">
+        <v>1957.055800042399</v>
+      </c>
+      <c r="BL34">
         <v>1888.715619438715</v>
       </c>
-      <c r="BI34">
+      <c r="BM34">
         <v>688.1807911071337</v>
       </c>
-      <c r="BJ34">
-        <v>194.3080604984109</v>
-      </c>
-      <c r="BK34">
-        <v>2160.739648714421</v>
-      </c>
-      <c r="BL34">
-        <v>1097.665164527991</v>
-      </c>
-      <c r="BM34">
-        <v>1108.130174645411</v>
-      </c>
       <c r="BN34">
-        <v>1916.122885965204</v>
+        <v>1724.943498316074</v>
       </c>
       <c r="BO34">
-        <v>2392.719408710603</v>
+        <v>1927.100182952162</v>
       </c>
       <c r="BP34">
-        <v>1724.943498316074</v>
-      </c>
-      <c r="BQ34">
-        <v>1945.690763537709</v>
-      </c>
-      <c r="BR34">
-        <v>1459.210688794982</v>
+        <v>1788.903873846146</v>
       </c>
     </row>
-    <row r="35" spans="1:70">
+    <row r="35" spans="1:68">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -7753,43 +7549,37 @@
         <v>1029.659018747407</v>
       </c>
       <c r="BG35">
-        <v>1057.443933780978</v>
+        <v>1304.437219395031</v>
       </c>
       <c r="BH35">
+        <v>119.6200444336781</v>
+      </c>
+      <c r="BI35">
+        <v>1135.245997305269</v>
+      </c>
+      <c r="BJ35">
+        <v>1145.097544372103</v>
+      </c>
+      <c r="BK35">
+        <v>2091.702074245717</v>
+      </c>
+      <c r="BL35">
         <v>2037.314160125034</v>
       </c>
-      <c r="BI35">
+      <c r="BM35">
         <v>861.2446726499129</v>
       </c>
-      <c r="BJ35">
-        <v>119.6200444336781</v>
-      </c>
-      <c r="BK35">
-        <v>2239.678751171627</v>
-      </c>
-      <c r="BL35">
-        <v>1135.245997305269</v>
-      </c>
-      <c r="BM35">
-        <v>1145.097544372103</v>
-      </c>
       <c r="BN35">
-        <v>1764.383336877404</v>
+        <v>1765.396697168663</v>
       </c>
       <c r="BO35">
-        <v>2489.858373360032</v>
+        <v>1809.463699762622</v>
       </c>
       <c r="BP35">
-        <v>1765.396697168663</v>
-      </c>
-      <c r="BQ35">
-        <v>1839.271944452748</v>
-      </c>
-      <c r="BR35">
-        <v>1378.798253609775</v>
+        <v>1693.204077877321</v>
       </c>
     </row>
-    <row r="36" spans="1:70">
+    <row r="36" spans="1:68">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -7965,43 +7755,37 @@
         <v>862.9806164498767</v>
       </c>
       <c r="BG36">
-        <v>1218.5522630682</v>
+        <v>1438.719560837592</v>
       </c>
       <c r="BH36">
+        <v>175.8345670682881</v>
+      </c>
+      <c r="BI36">
+        <v>1084.856561375734</v>
+      </c>
+      <c r="BJ36">
+        <v>1095.294353644035</v>
+      </c>
+      <c r="BK36">
+        <v>1955.433456871262</v>
+      </c>
+      <c r="BL36">
         <v>1888.6539642769</v>
       </c>
-      <c r="BI36">
+      <c r="BM36">
         <v>688.6889104345007</v>
       </c>
-      <c r="BJ36">
-        <v>175.8345670682881</v>
-      </c>
-      <c r="BK36">
-        <v>2153.345884550181</v>
-      </c>
-      <c r="BL36">
-        <v>1084.856561375734</v>
-      </c>
-      <c r="BM36">
-        <v>1095.294353644035</v>
-      </c>
       <c r="BN36">
-        <v>1891.077743902579</v>
+        <v>1713.483312442349</v>
       </c>
       <c r="BO36">
-        <v>2387.32512546599</v>
+        <v>1903.920185337442</v>
       </c>
       <c r="BP36">
-        <v>1713.483312442349</v>
-      </c>
-      <c r="BQ36">
-        <v>1923.195381497188</v>
-      </c>
-      <c r="BR36">
-        <v>1437.95905681006</v>
+        <v>1766.974672022462</v>
       </c>
     </row>
-    <row r="37" spans="1:70">
+    <row r="37" spans="1:68">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -8177,43 +7961,37 @@
         <v>1549.581698015508</v>
       </c>
       <c r="BG37">
-        <v>663.8874746312393</v>
+        <v>384.0436126174746</v>
       </c>
       <c r="BH37">
+        <v>1760.24542746924</v>
+      </c>
+      <c r="BI37">
+        <v>1038.143737194014</v>
+      </c>
+      <c r="BJ37">
+        <v>1032.860823297894</v>
+      </c>
+      <c r="BK37">
+        <v>1761.86387253833</v>
+      </c>
+      <c r="BL37">
         <v>1815.390980051227</v>
       </c>
-      <c r="BI37">
+      <c r="BM37">
         <v>1562.645844682351</v>
       </c>
-      <c r="BJ37">
-        <v>1760.24542746924</v>
-      </c>
-      <c r="BK37">
-        <v>1516.930927015196</v>
-      </c>
-      <c r="BL37">
-        <v>1038.143737194014</v>
-      </c>
-      <c r="BM37">
-        <v>1032.860823297894</v>
-      </c>
       <c r="BN37">
-        <v>171.0729408862662</v>
+        <v>1061.191576363413</v>
       </c>
       <c r="BO37">
-        <v>1792.210079651025</v>
+        <v>176.2210248103138</v>
       </c>
       <c r="BP37">
-        <v>1061.191576363413</v>
-      </c>
-      <c r="BQ37">
-        <v>246.967028917489</v>
-      </c>
-      <c r="BR37">
-        <v>439.3896843222967</v>
+        <v>246.8295854684929</v>
       </c>
     </row>
-    <row r="38" spans="1:70">
+    <row r="38" spans="1:68">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -8389,43 +8167,37 @@
         <v>1755.275600142764</v>
       </c>
       <c r="BG38">
-        <v>768.3886075959562</v>
+        <v>503.9578287398897</v>
       </c>
       <c r="BH38">
+        <v>1910.805361180127</v>
+      </c>
+      <c r="BI38">
+        <v>1246.466687653696</v>
+      </c>
+      <c r="BJ38">
+        <v>1241.349320380751</v>
+      </c>
+      <c r="BK38">
+        <v>1951.485835955209</v>
+      </c>
+      <c r="BL38">
         <v>2010.018846732336</v>
       </c>
-      <c r="BI38">
+      <c r="BM38">
         <v>1763.072252411024</v>
       </c>
-      <c r="BJ38">
-        <v>1910.805361180127</v>
-      </c>
-      <c r="BK38">
-        <v>1681.208079557515</v>
-      </c>
-      <c r="BL38">
-        <v>1246.466687653696</v>
-      </c>
-      <c r="BM38">
-        <v>1241.349320380751</v>
-      </c>
       <c r="BN38">
-        <v>45.46121710991425</v>
+        <v>1249.076219951066</v>
       </c>
       <c r="BO38">
-        <v>1949.62048145234</v>
+        <v>259.9001113722245</v>
       </c>
       <c r="BP38">
-        <v>1249.076219951066</v>
-      </c>
-      <c r="BQ38">
-        <v>340.4672638074063</v>
-      </c>
-      <c r="BR38">
-        <v>648.2479970599596</v>
+        <v>423.1500011789162</v>
       </c>
     </row>
-    <row r="39" spans="1:70">
+    <row r="39" spans="1:68">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -8601,43 +8373,37 @@
         <v>1673.689331908624</v>
       </c>
       <c r="BG39">
-        <v>786.0856934554581</v>
+        <v>508.357153390962</v>
       </c>
       <c r="BH39">
+        <v>1896.169008029488</v>
+      </c>
+      <c r="BI39">
+        <v>1157.449317210927</v>
+      </c>
+      <c r="BJ39">
+        <v>1151.60755017754</v>
+      </c>
+      <c r="BK39">
+        <v>1825.319035875726</v>
+      </c>
+      <c r="BL39">
         <v>1886.255443461991</v>
       </c>
-      <c r="BI39">
+      <c r="BM39">
         <v>1692.331084509261</v>
       </c>
-      <c r="BJ39">
-        <v>1896.169008029488</v>
-      </c>
-      <c r="BK39">
-        <v>1549.842212736917</v>
-      </c>
-      <c r="BL39">
-        <v>1157.449317210927</v>
-      </c>
-      <c r="BM39">
-        <v>1151.60755017754</v>
-      </c>
       <c r="BN39">
-        <v>122.8075991715346</v>
+        <v>1122.977292471968</v>
       </c>
       <c r="BO39">
-        <v>1817.951807826627</v>
+        <v>128.4924778932623</v>
       </c>
       <c r="BP39">
-        <v>1122.977292471968</v>
-      </c>
-      <c r="BQ39">
-        <v>210.0850893114726</v>
-      </c>
-      <c r="BR39">
-        <v>559.7390294065585</v>
+        <v>298.7054161400548</v>
       </c>
     </row>
-    <row r="40" spans="1:70">
+    <row r="40" spans="1:68">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -8813,43 +8579,37 @@
         <v>1807.504797973918</v>
       </c>
       <c r="BG40">
-        <v>845.7553757392494</v>
+        <v>579.6020519392251</v>
       </c>
       <c r="BH40">
+        <v>1985.244539547278</v>
+      </c>
+      <c r="BI40">
+        <v>1294.180941919038</v>
+      </c>
+      <c r="BJ40">
+        <v>1288.623461825902</v>
+      </c>
+      <c r="BK40">
+        <v>1962.940616709448</v>
+      </c>
+      <c r="BL40">
         <v>2025.745443720265</v>
       </c>
-      <c r="BI40">
+      <c r="BM40">
         <v>1820.655463308911</v>
       </c>
-      <c r="BJ40">
-        <v>1985.244539547278</v>
-      </c>
-      <c r="BK40">
-        <v>1676.306686265767</v>
-      </c>
-      <c r="BL40">
-        <v>1294.180941919038</v>
-      </c>
-      <c r="BM40">
-        <v>1288.623461825902</v>
-      </c>
       <c r="BN40">
-        <v>119.3164830672237</v>
+        <v>1261.071511612498</v>
       </c>
       <c r="BO40">
-        <v>1940.233092437341</v>
+        <v>256.26030208563</v>
       </c>
       <c r="BP40">
-        <v>1261.071511612498</v>
-      </c>
-      <c r="BQ40">
-        <v>328.985368791492</v>
-      </c>
-      <c r="BR40">
-        <v>695.3063217449047</v>
+        <v>439.6885159457224</v>
       </c>
     </row>
-    <row r="41" spans="1:70">
+    <row r="41" spans="1:68">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9025,43 +8785,37 @@
         <v>1752.541028837813</v>
       </c>
       <c r="BG41">
-        <v>879.0392320493628</v>
+        <v>602.388594700624</v>
       </c>
       <c r="BH41">
+        <v>1991.472291670931</v>
+      </c>
+      <c r="BI41">
+        <v>1233.243039441973</v>
+      </c>
+      <c r="BJ41">
+        <v>1226.980640090503</v>
+      </c>
+      <c r="BK41">
+        <v>1857.900057229359</v>
+      </c>
+      <c r="BL41">
         <v>1924.013457633382</v>
       </c>
-      <c r="BI41">
+      <c r="BM41">
         <v>1776.177044746465</v>
       </c>
-      <c r="BJ41">
-        <v>1991.472291670931</v>
-      </c>
-      <c r="BK41">
-        <v>1561.802834484587</v>
-      </c>
-      <c r="BL41">
-        <v>1233.243039441973</v>
-      </c>
-      <c r="BM41">
-        <v>1226.980640090503</v>
-      </c>
       <c r="BN41">
-        <v>178.2202072975638</v>
+        <v>1157.605310892363</v>
       </c>
       <c r="BO41">
-        <v>1823.853035111479</v>
+        <v>154.7844485086651</v>
       </c>
       <c r="BP41">
-        <v>1157.605310892363</v>
-      </c>
-      <c r="BQ41">
-        <v>216.8669944876199</v>
-      </c>
-      <c r="BR41">
-        <v>639.3441541407116</v>
+        <v>348.853059895189</v>
       </c>
     </row>
-    <row r="42" spans="1:70">
+    <row r="42" spans="1:68">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -9237,43 +8991,37 @@
         <v>1488.316397770037</v>
       </c>
       <c r="BG42">
-        <v>661.4184164944173</v>
+        <v>383.6298936676994</v>
       </c>
       <c r="BH42">
+        <v>1730.179584954766</v>
+      </c>
+      <c r="BI42">
+        <v>974.1284636179196</v>
+      </c>
+      <c r="BJ42">
+        <v>968.584991678762</v>
+      </c>
+      <c r="BK42">
+        <v>1692.422543239257</v>
+      </c>
+      <c r="BL42">
         <v>1745.34732328593</v>
       </c>
-      <c r="BI42">
+      <c r="BM42">
         <v>1505.713497514499</v>
       </c>
-      <c r="BJ42">
-        <v>1730.179584954766</v>
-      </c>
-      <c r="BK42">
-        <v>1452.605185065417</v>
-      </c>
-      <c r="BL42">
-        <v>974.1284636179196</v>
-      </c>
-      <c r="BM42">
-        <v>968.584991678762</v>
-      </c>
       <c r="BN42">
-        <v>240.710832554299</v>
+        <v>992.264037407499</v>
       </c>
       <c r="BO42">
-        <v>1729.28504030792</v>
+        <v>176.1312133457984</v>
       </c>
       <c r="BP42">
-        <v>992.264037407499</v>
-      </c>
-      <c r="BQ42">
-        <v>228.265848206302</v>
-      </c>
-      <c r="BR42">
-        <v>375.2797468496436</v>
+        <v>186.6879274806538</v>
       </c>
     </row>
-    <row r="43" spans="1:70">
+    <row r="43" spans="1:68">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -9449,43 +9197,37 @@
         <v>1062.716498283366</v>
       </c>
       <c r="BG43">
-        <v>1846.343111771893</v>
+        <v>1741.287086891464</v>
       </c>
       <c r="BH43">
+        <v>2045.689201081444</v>
+      </c>
+      <c r="BI43">
+        <v>984.3392892958194</v>
+      </c>
+      <c r="BJ43">
+        <v>977.8957910394303</v>
+      </c>
+      <c r="BK43">
+        <v>89.15991610849737</v>
+      </c>
+      <c r="BL43">
         <v>185.2080631280368</v>
       </c>
-      <c r="BI43">
+      <c r="BM43">
         <v>1233.912764539875</v>
       </c>
-      <c r="BJ43">
-        <v>2045.689201081444</v>
-      </c>
-      <c r="BK43">
-        <v>417.8710579571114</v>
-      </c>
-      <c r="BL43">
-        <v>984.3392892958194</v>
-      </c>
-      <c r="BM43">
-        <v>977.8957910394303</v>
-      </c>
       <c r="BN43">
-        <v>1835.241950499271</v>
+        <v>613.2934335921838</v>
       </c>
       <c r="BO43">
-        <v>516.3897285567141</v>
+        <v>1618.127933073111</v>
       </c>
       <c r="BP43">
-        <v>613.2934335921838</v>
-      </c>
-      <c r="BQ43">
-        <v>1552.765868729289</v>
-      </c>
-      <c r="BR43">
-        <v>1320.154510412005</v>
+        <v>1439.205791289934</v>
       </c>
     </row>
-    <row r="44" spans="1:70">
+    <row r="44" spans="1:68">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -9661,43 +9403,37 @@
         <v>946.0034517519882</v>
       </c>
       <c r="BG44">
-        <v>1858.850233278019</v>
+        <v>1780.941948918585</v>
       </c>
       <c r="BH44">
+        <v>1948.689656648729</v>
+      </c>
+      <c r="BI44">
+        <v>958.754730636142</v>
+      </c>
+      <c r="BJ44">
+        <v>954.0155571503179</v>
+      </c>
+      <c r="BK44">
+        <v>167.90667054469</v>
+      </c>
+      <c r="BL44">
         <v>84.88242856402188</v>
       </c>
-      <c r="BI44">
+      <c r="BM44">
         <v>1120.086291231054</v>
       </c>
-      <c r="BJ44">
-        <v>1948.689656648729</v>
-      </c>
-      <c r="BK44">
-        <v>604.2049819798124</v>
-      </c>
-      <c r="BL44">
-        <v>958.754730636142</v>
-      </c>
-      <c r="BM44">
-        <v>954.0155571503179</v>
-      </c>
       <c r="BN44">
-        <v>1918.221327735435</v>
+        <v>713.3466345960744</v>
       </c>
       <c r="BO44">
-        <v>688.702285829508</v>
+        <v>1713.422201065729</v>
       </c>
       <c r="BP44">
-        <v>713.3466345960744</v>
-      </c>
-      <c r="BQ44">
-        <v>1653.341407041925</v>
-      </c>
-      <c r="BR44">
-        <v>1370.857434507511</v>
+        <v>1527.435865812011</v>
       </c>
     </row>
-    <row r="45" spans="1:70">
+    <row r="45" spans="1:68">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -9873,43 +9609,37 @@
         <v>1037.523597460973</v>
       </c>
       <c r="BG45">
-        <v>1898.164406250286</v>
+        <v>1806.157588773722</v>
       </c>
       <c r="BH45">
+        <v>2035.000802441728</v>
+      </c>
+      <c r="BI45">
+        <v>1014.082949463529</v>
+      </c>
+      <c r="BJ45">
+        <v>1008.538719648117</v>
+      </c>
+      <c r="BK45">
+        <v>65.62922319399613</v>
+      </c>
+      <c r="BL45">
         <v>77.22477293859652</v>
       </c>
-      <c r="BI45">
+      <c r="BM45">
         <v>1211.039124508209</v>
       </c>
-      <c r="BJ45">
-        <v>2035.000802441728</v>
-      </c>
-      <c r="BK45">
-        <v>520.9158042898537</v>
-      </c>
-      <c r="BL45">
-        <v>1014.082949463529</v>
-      </c>
-      <c r="BM45">
-        <v>1008.538719648117</v>
-      </c>
       <c r="BN45">
-        <v>1919.215220089871</v>
+        <v>700.9837875110862</v>
       </c>
       <c r="BO45">
-        <v>587.6112283957758</v>
+        <v>1706.735126180023</v>
       </c>
       <c r="BP45">
-        <v>700.9837875110862</v>
-      </c>
-      <c r="BQ45">
-        <v>1643.301961615778</v>
-      </c>
-      <c r="BR45">
-        <v>1389.410069657129</v>
+        <v>1524.814759965559</v>
       </c>
     </row>
-    <row r="46" spans="1:70">
+    <row r="46" spans="1:68">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -10085,43 +9815,37 @@
         <v>1344.577186589029</v>
       </c>
       <c r="BG46">
-        <v>2187.63361573454</v>
+        <v>2076.618233046884</v>
       </c>
       <c r="BH46">
+        <v>2347.419548483661</v>
+      </c>
+      <c r="BI46">
+        <v>1322.439833931567</v>
+      </c>
+      <c r="BJ46">
+        <v>1316.37174879527</v>
+      </c>
+      <c r="BK46">
+        <v>268.0980369362811</v>
+      </c>
+      <c r="BL46">
         <v>318.5829613830367</v>
       </c>
-      <c r="BI46">
+      <c r="BM46">
         <v>1518.774121307565</v>
       </c>
-      <c r="BJ46">
-        <v>2347.419548483661</v>
-      </c>
-      <c r="BK46">
-        <v>556.3851193328604</v>
-      </c>
-      <c r="BL46">
-        <v>1322.439833931567</v>
-      </c>
-      <c r="BM46">
-        <v>1316.37174879527</v>
-      </c>
       <c r="BN46">
-        <v>2145.838403126002</v>
+        <v>928.5986034812869</v>
       </c>
       <c r="BO46">
-        <v>454.9605986867981</v>
+        <v>1919.481347706202</v>
       </c>
       <c r="BP46">
-        <v>928.5986034812869</v>
-      </c>
-      <c r="BQ46">
-        <v>1849.536534613175</v>
-      </c>
-      <c r="BR46">
-        <v>1652.876467613944</v>
+        <v>1748.441542620909</v>
       </c>
     </row>
-    <row r="47" spans="1:70">
+    <row r="47" spans="1:68">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -10297,43 +10021,37 @@
         <v>1038.860990186645</v>
       </c>
       <c r="BG47">
-        <v>1869.171584594564</v>
+        <v>1772.474427613457</v>
       </c>
       <c r="BH47">
+        <v>2030.763553348598</v>
+      </c>
+      <c r="BI47">
+        <v>992.8176436158096</v>
+      </c>
+      <c r="BJ47">
+        <v>986.9209997881953</v>
+      </c>
+      <c r="BK47">
+        <v>62.57201468096854</v>
+      </c>
+      <c r="BL47">
         <v>122.1189719483471</v>
       </c>
-      <c r="BI47">
+      <c r="BM47">
         <v>1211.55125713375</v>
       </c>
-      <c r="BJ47">
-        <v>2030.763553348598</v>
-      </c>
-      <c r="BK47">
-        <v>480.4670341119985</v>
-      </c>
-      <c r="BL47">
-        <v>992.8176436158096</v>
-      </c>
-      <c r="BM47">
-        <v>986.9209997881953</v>
-      </c>
       <c r="BN47">
-        <v>1879.219515704873</v>
+        <v>659.450798847904</v>
       </c>
       <c r="BO47">
-        <v>562.7104101472937</v>
+        <v>1665.306561987023</v>
       </c>
       <c r="BP47">
-        <v>659.450798847904</v>
-      </c>
-      <c r="BQ47">
-        <v>1601.30530878877</v>
-      </c>
-      <c r="BR47">
-        <v>1354.079896094632</v>
+        <v>1484.249792398447</v>
       </c>
     </row>
-    <row r="48" spans="1:70">
+    <row r="48" spans="1:68">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -10509,43 +10227,37 @@
         <v>948.6759803808909</v>
       </c>
       <c r="BG48">
-        <v>1906.724362167205</v>
+        <v>1836.130047680542</v>
       </c>
       <c r="BH48">
+        <v>1956.68061101062</v>
+      </c>
+      <c r="BI48">
+        <v>998.5861473222578</v>
+      </c>
+      <c r="BJ48">
+        <v>994.4296479911783</v>
+      </c>
+      <c r="BK48">
+        <v>210.8746859216132</v>
+      </c>
+      <c r="BL48">
         <v>90.89077777071019</v>
       </c>
-      <c r="BI48">
+      <c r="BM48">
         <v>1122.992962590376</v>
       </c>
-      <c r="BJ48">
-        <v>1956.68061101062</v>
-      </c>
-      <c r="BK48">
-        <v>667.7233539455349</v>
-      </c>
-      <c r="BL48">
-        <v>998.5861473222578</v>
-      </c>
-      <c r="BM48">
-        <v>994.4296479911783</v>
-      </c>
       <c r="BN48">
-        <v>1982.585165971278</v>
+        <v>782.4328821966772</v>
       </c>
       <c r="BO48">
-        <v>733.3057298041074</v>
+        <v>1780.083163324025</v>
       </c>
       <c r="BP48">
-        <v>782.4328821966772</v>
-      </c>
-      <c r="BQ48">
-        <v>1720.868217037627</v>
-      </c>
-      <c r="BR48">
-        <v>1429.458424963049</v>
+        <v>1593.128919134864</v>
       </c>
     </row>
-    <row r="49" spans="1:70">
+    <row r="49" spans="1:68">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -10721,43 +10433,37 @@
         <v>1167.739962703119</v>
       </c>
       <c r="BG49">
-        <v>1971.609888563751</v>
+        <v>1862.992769435348</v>
       </c>
       <c r="BH49">
+        <v>2159.534694538353</v>
+      </c>
+      <c r="BI49">
+        <v>1110.047768628916</v>
+      </c>
+      <c r="BJ49">
+        <v>1103.70538081685</v>
+      </c>
+      <c r="BK49">
+        <v>71.34116510957645</v>
+      </c>
+      <c r="BL49">
         <v>186.4087040442641</v>
       </c>
-      <c r="BI49">
+      <c r="BM49">
         <v>1340.552011026887</v>
       </c>
-      <c r="BJ49">
-        <v>2159.534694538353</v>
-      </c>
-      <c r="BK49">
-        <v>436.2039082207747</v>
-      </c>
-      <c r="BL49">
-        <v>1110.047768628916</v>
-      </c>
-      <c r="BM49">
-        <v>1103.70538081685</v>
-      </c>
       <c r="BN49">
-        <v>1945.008445741845</v>
+        <v>723.4489916878601</v>
       </c>
       <c r="BO49">
-        <v>458.3181272607993</v>
+        <v>1723.485543687579</v>
       </c>
       <c r="BP49">
-        <v>723.4489916878601</v>
-      </c>
-      <c r="BQ49">
-        <v>1655.964264641351</v>
-      </c>
-      <c r="BR49">
-        <v>1440.376727870849</v>
+        <v>1548.013218486245</v>
       </c>
     </row>
-    <row r="50" spans="1:70">
+    <row r="50" spans="1:68">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -10933,43 +10639,37 @@
         <v>127.9186741928969</v>
       </c>
       <c r="BG50">
-        <v>1198.95934519346</v>
+        <v>1284.792494750717</v>
       </c>
       <c r="BH50">
+        <v>895.6012587238582</v>
+      </c>
+      <c r="BI50">
+        <v>494.833597188583</v>
+      </c>
+      <c r="BJ50">
+        <v>503.9451576074369</v>
+      </c>
+      <c r="BK50">
+        <v>1200.454760780552</v>
+      </c>
+      <c r="BL50">
         <v>1135.710076907996</v>
       </c>
-      <c r="BI50">
+      <c r="BM50">
         <v>92.83923101141514</v>
       </c>
-      <c r="BJ50">
-        <v>895.6012587238582</v>
-      </c>
-      <c r="BK50">
-        <v>1423.310155754048</v>
-      </c>
-      <c r="BL50">
-        <v>494.833597188583</v>
-      </c>
-      <c r="BM50">
-        <v>503.9451576074369</v>
-      </c>
       <c r="BN50">
-        <v>1648.093605424768</v>
+        <v>1041.954649165149</v>
       </c>
       <c r="BO50">
-        <v>1642.483906833701</v>
+        <v>1562.690902239529</v>
       </c>
       <c r="BP50">
-        <v>1041.954649165149</v>
-      </c>
-      <c r="BQ50">
-        <v>1550.060035708327</v>
-      </c>
-      <c r="BR50">
-        <v>1060.838781185056</v>
+        <v>1382.090346758109</v>
       </c>
     </row>
-    <row r="51" spans="1:70">
+    <row r="51" spans="1:68">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -11145,43 +10845,37 @@
         <v>243.6291082571157</v>
       </c>
       <c r="BG51">
-        <v>1276.312082225996</v>
+        <v>1392.321545548474</v>
       </c>
       <c r="BH51">
+        <v>785.5390143136874</v>
+      </c>
+      <c r="BI51">
+        <v>660.9000275254677</v>
+      </c>
+      <c r="BJ51">
+        <v>670.4760646801512</v>
+      </c>
+      <c r="BK51">
+        <v>1340.683226220451</v>
+      </c>
+      <c r="BL51">
         <v>1266.42085601219</v>
       </c>
-      <c r="BI51">
+      <c r="BM51">
         <v>82.73575216671894</v>
       </c>
-      <c r="BJ51">
-        <v>785.5390143136874</v>
-      </c>
-      <c r="BK51">
-        <v>1588.26468333289</v>
-      </c>
-      <c r="BL51">
-        <v>660.9000275254677</v>
-      </c>
-      <c r="BM51">
-        <v>670.4760646801512</v>
-      </c>
       <c r="BN51">
-        <v>1778.298568534126</v>
+        <v>1217.000886996791</v>
       </c>
       <c r="BO51">
-        <v>1799.337080559871</v>
+        <v>1708.175356026254</v>
       </c>
       <c r="BP51">
-        <v>1217.000886996791</v>
-      </c>
-      <c r="BQ51">
-        <v>1700.300435458209</v>
-      </c>
-      <c r="BR51">
-        <v>1205.014900850966</v>
+        <v>1532.391590139447</v>
       </c>
     </row>
-    <row r="52" spans="1:70">
+    <row r="52" spans="1:68">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -11357,43 +11051,37 @@
         <v>122.0157747082976</v>
       </c>
       <c r="BG52">
-        <v>1185.43714170411</v>
+        <v>1263.537098665595</v>
       </c>
       <c r="BH52">
+        <v>924.1038638262729</v>
+      </c>
+      <c r="BI52">
+        <v>458.6943357189705</v>
+      </c>
+      <c r="BJ52">
+        <v>467.6238717002381</v>
+      </c>
+      <c r="BK52">
+        <v>1169.310408332252</v>
+      </c>
+      <c r="BL52">
         <v>1107.035065643071</v>
       </c>
-      <c r="BI52">
+      <c r="BM52">
         <v>132.439047714421</v>
       </c>
-      <c r="BJ52">
-        <v>924.1038638262729</v>
-      </c>
-      <c r="BK52">
-        <v>1385.936026525581</v>
-      </c>
-      <c r="BL52">
-        <v>458.6943357189705</v>
-      </c>
-      <c r="BM52">
-        <v>467.6238717002381</v>
-      </c>
       <c r="BN52">
-        <v>1620.635503013884</v>
+        <v>1002.302912955882</v>
       </c>
       <c r="BO52">
-        <v>1606.99231781856</v>
+        <v>1531.336232874713</v>
       </c>
       <c r="BP52">
-        <v>1002.302912955882</v>
-      </c>
-      <c r="BQ52">
-        <v>1517.458816117571</v>
-      </c>
-      <c r="BR52">
-        <v>1030.287414824492</v>
+        <v>1349.57094326333</v>
       </c>
     </row>
-    <row r="53" spans="1:70">
+    <row r="53" spans="1:68">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -11569,43 +11257,37 @@
         <v>207.9665555010941</v>
       </c>
       <c r="BG53">
-        <v>1268.725207156116</v>
+        <v>1377.955115460326</v>
       </c>
       <c r="BH53">
+        <v>814.5278301382656</v>
+      </c>
+      <c r="BI53">
+        <v>630.4074846805232</v>
+      </c>
+      <c r="BJ53">
+        <v>639.8412387617891</v>
+      </c>
+      <c r="BK53">
+        <v>1305.620988941585</v>
+      </c>
+      <c r="BL53">
         <v>1232.367267912843</v>
       </c>
-      <c r="BI53">
+      <c r="BM53">
         <v>47.86723232474374</v>
       </c>
-      <c r="BJ53">
-        <v>814.5278301382656</v>
-      </c>
-      <c r="BK53">
-        <v>1551.462015083532</v>
-      </c>
-      <c r="BL53">
-        <v>630.4074846805232</v>
-      </c>
-      <c r="BM53">
-        <v>639.8412387617891</v>
-      </c>
       <c r="BN53">
-        <v>1758.620495266418</v>
+        <v>1181.290262685341</v>
       </c>
       <c r="BO53">
-        <v>1762.904640273456</v>
+        <v>1684.409133695269</v>
       </c>
       <c r="BP53">
-        <v>1181.290262685341</v>
-      </c>
-      <c r="BQ53">
-        <v>1675.193041806343</v>
-      </c>
-      <c r="BR53">
-        <v>1181.341013041518</v>
+        <v>1507.207548384078</v>
       </c>
     </row>
-    <row r="54" spans="1:70">
+    <row r="54" spans="1:68">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -11781,43 +11463,37 @@
         <v>28.4825130993651</v>
       </c>
       <c r="BG54">
-        <v>1286.864818013031</v>
+        <v>1359.855521333691</v>
       </c>
       <c r="BH54">
+        <v>982.2634868763841</v>
+      </c>
+      <c r="BI54">
+        <v>526.0714553750706</v>
+      </c>
+      <c r="BJ54">
+        <v>534.0254746736789</v>
+      </c>
+      <c r="BK54">
+        <v>1125.34323984577</v>
+      </c>
+      <c r="BL54">
         <v>1054.368148375678</v>
       </c>
-      <c r="BI54">
+      <c r="BM54">
         <v>146.1958182672639</v>
       </c>
-      <c r="BJ54">
-        <v>982.2634868763841</v>
-      </c>
-      <c r="BK54">
-        <v>1374.103391187238</v>
-      </c>
-      <c r="BL54">
-        <v>526.0714553750706</v>
-      </c>
-      <c r="BM54">
-        <v>534.0254746736789</v>
-      </c>
       <c r="BN54">
-        <v>1708.143683762172</v>
+        <v>1023.312355544198</v>
       </c>
       <c r="BO54">
-        <v>1582.333716622415</v>
+        <v>1610.3959444082</v>
       </c>
       <c r="BP54">
-        <v>1023.312355544198</v>
-      </c>
-      <c r="BQ54">
-        <v>1593.030267859241</v>
-      </c>
-      <c r="BR54">
-        <v>1112.184019222322</v>
+        <v>1425.631896091546</v>
       </c>
     </row>
-    <row r="55" spans="1:70">
+    <row r="55" spans="1:68">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -11993,43 +11669,37 @@
         <v>240.4442958157237</v>
       </c>
       <c r="BG55">
-        <v>1332.79093018587</v>
+        <v>1446.102588737169</v>
       </c>
       <c r="BH55">
+        <v>820.1242506416673</v>
+      </c>
+      <c r="BI55">
+        <v>696.4605727600866</v>
+      </c>
+      <c r="BJ55">
+        <v>705.7295372305618</v>
+      </c>
+      <c r="BK55">
+        <v>1327.812149361359</v>
+      </c>
+      <c r="BL55">
         <v>1249.257996501709</v>
       </c>
-      <c r="BI55">
+      <c r="BM55">
         <v>113.7982657224489</v>
       </c>
-      <c r="BJ55">
-        <v>820.1242506416673</v>
-      </c>
-      <c r="BK55">
-        <v>1590.948632989391</v>
-      </c>
-      <c r="BL55">
-        <v>696.4605727600866</v>
-      </c>
-      <c r="BM55">
-        <v>705.7295372305618</v>
-      </c>
       <c r="BN55">
-        <v>1828.318737500519</v>
+        <v>1235.138877014722</v>
       </c>
       <c r="BO55">
-        <v>1795.365293849677</v>
+        <v>1754.000656706688</v>
       </c>
       <c r="BP55">
-        <v>1235.138877014722</v>
-      </c>
-      <c r="BQ55">
-        <v>1744.439554108517</v>
-      </c>
-      <c r="BR55">
-        <v>1250.970959969353</v>
+        <v>1576.439284534891</v>
       </c>
     </row>
-    <row r="56" spans="1:70">
+    <row r="56" spans="1:68">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -12205,43 +11875,37 @@
         <v>254.0563595366044</v>
       </c>
       <c r="BG56">
-        <v>1408.734075626311</v>
+        <v>1518.133456560563</v>
       </c>
       <c r="BH56">
+        <v>873.117212966844</v>
+      </c>
+      <c r="BI56">
+        <v>746.4392815447875</v>
+      </c>
+      <c r="BJ56">
+        <v>755.2710978282784</v>
+      </c>
+      <c r="BK56">
+        <v>1310.883602318961</v>
+      </c>
+      <c r="BL56">
         <v>1226.665878968716</v>
       </c>
-      <c r="BI56">
+      <c r="BM56">
         <v>176.3212728503347</v>
       </c>
-      <c r="BJ56">
-        <v>873.117212966844</v>
-      </c>
-      <c r="BK56">
-        <v>1594.517431811859</v>
-      </c>
-      <c r="BL56">
-        <v>746.4392815447875</v>
-      </c>
-      <c r="BM56">
-        <v>755.2710978282784</v>
-      </c>
       <c r="BN56">
-        <v>1895.037203664009</v>
+        <v>1260.297926961561</v>
       </c>
       <c r="BO56">
-        <v>1789.555046728398</v>
+        <v>1815.06649817406</v>
       </c>
       <c r="BP56">
-        <v>1260.297926961561</v>
-      </c>
-      <c r="BQ56">
-        <v>1803.244537488825</v>
-      </c>
-      <c r="BR56">
-        <v>1312.639295248296</v>
+        <v>1635.252399343817</v>
       </c>
     </row>
-    <row r="57" spans="1:70">
+    <row r="57" spans="1:68">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -12417,43 +12081,37 @@
         <v>183.8046812770433</v>
       </c>
       <c r="BG57">
-        <v>1419.277984796171</v>
+        <v>1511.848636969083</v>
       </c>
       <c r="BH57">
+        <v>956.2004780248433</v>
+      </c>
+      <c r="BI57">
+        <v>700.7841583932852</v>
+      </c>
+      <c r="BJ57">
+        <v>708.9127409141803</v>
+      </c>
+      <c r="BK57">
+        <v>1216.782756884049</v>
+      </c>
+      <c r="BL57">
         <v>1132.274452407511</v>
       </c>
-      <c r="BI57">
+      <c r="BM57">
         <v>181.0294508604912</v>
       </c>
-      <c r="BJ57">
-        <v>956.2004780248433</v>
-      </c>
-      <c r="BK57">
-        <v>1505.78530157909</v>
-      </c>
-      <c r="BL57">
-        <v>700.7841583932852</v>
-      </c>
-      <c r="BM57">
-        <v>708.9127409141803</v>
-      </c>
       <c r="BN57">
-        <v>1873.578614926727</v>
+        <v>1185.195481972286</v>
       </c>
       <c r="BO57">
-        <v>1697.431198331079</v>
+        <v>1782.123515601418</v>
       </c>
       <c r="BP57">
-        <v>1185.195481972286</v>
-      </c>
-      <c r="BQ57">
-        <v>1766.303246090696</v>
-      </c>
-      <c r="BR57">
-        <v>1282.127037490664</v>
+        <v>1598.673233136969</v>
       </c>
     </row>
-    <row r="58" spans="1:70">
+    <row r="58" spans="1:68">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -12629,2583 +12287,2093 @@
         <v>0</v>
       </c>
       <c r="BG58">
-        <v>1301.760254428839</v>
+        <v>1369.518921238702</v>
       </c>
       <c r="BH58">
+        <v>1010.740801341844</v>
+      </c>
+      <c r="BI58">
+        <v>523.7476946067641</v>
+      </c>
+      <c r="BJ58">
+        <v>531.3209731636168</v>
+      </c>
+      <c r="BK58">
+        <v>1097.872541497174</v>
+      </c>
+      <c r="BL58">
         <v>1026.297129141271</v>
       </c>
-      <c r="BI58">
+      <c r="BM58">
         <v>174.3381778198422</v>
       </c>
-      <c r="BJ58">
-        <v>1010.740801341844</v>
-      </c>
-      <c r="BK58">
-        <v>1350.504864670973</v>
-      </c>
-      <c r="BL58">
-        <v>523.7476946067641</v>
-      </c>
-      <c r="BM58">
-        <v>531.3209731636168</v>
-      </c>
       <c r="BN58">
-        <v>1712.308072015636</v>
+        <v>1006.393087116311</v>
       </c>
       <c r="BO58">
-        <v>1556.803831861633</v>
+        <v>1610.653425017383</v>
       </c>
       <c r="BP58">
-        <v>1006.393087116311</v>
-      </c>
-      <c r="BQ58">
-        <v>1591.849810957905</v>
-      </c>
-      <c r="BR58">
-        <v>1114.050439784723</v>
+        <v>1424.753052150079</v>
       </c>
     </row>
-    <row r="59" spans="1:70">
+    <row r="59" spans="1:68">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1054.70544396366</v>
+        <v>997.047666372817</v>
       </c>
       <c r="C59">
-        <v>509.1030413114087</v>
+        <v>245.3690125066247</v>
       </c>
       <c r="D59">
-        <v>402.0904218912002</v>
+        <v>143.0153908154966</v>
       </c>
       <c r="E59">
-        <v>572.0285854353685</v>
+        <v>296.0485124358049</v>
       </c>
       <c r="F59">
-        <v>703.4699803101049</v>
+        <v>487.2087115273346</v>
       </c>
       <c r="G59">
-        <v>388.6213720377262</v>
+        <v>155.3083677808127</v>
       </c>
       <c r="H59">
-        <v>433.6088527766202</v>
+        <v>175.0508078925432</v>
       </c>
       <c r="I59">
-        <v>237.977716635755</v>
+        <v>72.62918387812691</v>
       </c>
       <c r="J59">
-        <v>394.3662935764926</v>
+        <v>229.9911968007829</v>
       </c>
       <c r="K59">
-        <v>161.0349510297748</v>
+        <v>178.0418445933017</v>
       </c>
       <c r="L59">
-        <v>1180.692084707023</v>
+        <v>1041.388710935558</v>
       </c>
       <c r="M59">
-        <v>1329.975406726601</v>
+        <v>1179.344799024548</v>
       </c>
       <c r="N59">
-        <v>1254.608980814834</v>
+        <v>1101.893847637276</v>
       </c>
       <c r="O59">
-        <v>1943.120768944666</v>
+        <v>1795.607542206995</v>
       </c>
       <c r="P59">
-        <v>1994.999288789096</v>
+        <v>1832.783107710271</v>
       </c>
       <c r="Q59">
-        <v>2116.38902660945</v>
+        <v>1971.054871486837</v>
       </c>
       <c r="R59">
-        <v>2081.2820991833</v>
+        <v>1934.718064937742</v>
       </c>
       <c r="S59">
-        <v>2113.705422484544</v>
+        <v>1970.221403201585</v>
       </c>
       <c r="T59">
-        <v>2033.082897982574</v>
+        <v>1875.221441706019</v>
       </c>
       <c r="U59">
-        <v>884.913869014701</v>
+        <v>608.4705202118429</v>
       </c>
       <c r="V59">
-        <v>682.0580348187676</v>
+        <v>409.3905607852796</v>
       </c>
       <c r="W59">
-        <v>783.6890413139854</v>
+        <v>738.5037773060362</v>
       </c>
       <c r="X59">
-        <v>690.690584183101</v>
+        <v>662.328871109186</v>
       </c>
       <c r="Y59">
-        <v>872.7122690595885</v>
+        <v>843.1859706674944</v>
       </c>
       <c r="Z59">
-        <v>784.6266706277471</v>
+        <v>773.3106971043676</v>
       </c>
       <c r="AA59">
-        <v>865.1678845969466</v>
+        <v>898.9454538175071</v>
       </c>
       <c r="AB59">
-        <v>1008.066483003928</v>
+        <v>1017.53023128522</v>
       </c>
       <c r="AC59">
-        <v>723.9050376228531</v>
+        <v>748.2400485137985</v>
       </c>
       <c r="AD59">
-        <v>1096.431237325342</v>
+        <v>1320.736433021667</v>
       </c>
       <c r="AE59">
-        <v>1276.84386424946</v>
+        <v>1507.331504350612</v>
       </c>
       <c r="AF59">
-        <v>1076.639845820584</v>
+        <v>1302.037159732624</v>
       </c>
       <c r="AG59">
-        <v>1100.865366389173</v>
+        <v>1334.680301537785</v>
       </c>
       <c r="AH59">
-        <v>1245.485234026864</v>
+        <v>1464.394862283666</v>
       </c>
       <c r="AI59">
-        <v>1057.443933780978</v>
+        <v>1304.437219395031</v>
       </c>
       <c r="AJ59">
-        <v>1218.5522630682</v>
+        <v>1438.719560837592</v>
       </c>
       <c r="AK59">
-        <v>663.8874746312393</v>
+        <v>384.0436126174746</v>
       </c>
       <c r="AL59">
-        <v>768.3886075959562</v>
+        <v>503.9578287398897</v>
       </c>
       <c r="AM59">
-        <v>786.0856934554581</v>
+        <v>508.357153390962</v>
       </c>
       <c r="AN59">
-        <v>845.7553757392494</v>
+        <v>579.6020519392251</v>
       </c>
       <c r="AO59">
-        <v>879.0392320493628</v>
+        <v>602.388594700624</v>
       </c>
       <c r="AP59">
-        <v>661.4184164944173</v>
+        <v>383.6298936676994</v>
       </c>
       <c r="AQ59">
-        <v>1846.343111771893</v>
+        <v>1741.287086891464</v>
       </c>
       <c r="AR59">
-        <v>1858.850233278019</v>
+        <v>1780.941948918585</v>
       </c>
       <c r="AS59">
-        <v>1898.164406250286</v>
+        <v>1806.157588773722</v>
       </c>
       <c r="AT59">
-        <v>2187.63361573454</v>
+        <v>2076.618233046884</v>
       </c>
       <c r="AU59">
-        <v>1869.171584594564</v>
+        <v>1772.474427613457</v>
       </c>
       <c r="AV59">
-        <v>1906.724362167205</v>
+        <v>1836.130047680542</v>
       </c>
       <c r="AW59">
-        <v>1971.609888563751</v>
+        <v>1862.992769435348</v>
       </c>
       <c r="AX59">
-        <v>1198.95934519346</v>
+        <v>1284.792494750717</v>
       </c>
       <c r="AY59">
-        <v>1276.312082225996</v>
+        <v>1392.321545548474</v>
       </c>
       <c r="AZ59">
-        <v>1185.43714170411</v>
+        <v>1263.537098665595</v>
       </c>
       <c r="BA59">
-        <v>1268.725207156116</v>
+        <v>1377.955115460326</v>
       </c>
       <c r="BB59">
-        <v>1286.864818013031</v>
+        <v>1359.855521333691</v>
       </c>
       <c r="BC59">
-        <v>1332.79093018587</v>
+        <v>1446.102588737169</v>
       </c>
       <c r="BD59">
-        <v>1408.734075626311</v>
+        <v>1518.133456560563</v>
       </c>
       <c r="BE59">
-        <v>1419.277984796171</v>
+        <v>1511.848636969083</v>
       </c>
       <c r="BF59">
-        <v>1301.760254428839</v>
+        <v>1369.518921238702</v>
       </c>
       <c r="BG59">
         <v>0</v>
       </c>
       <c r="BH59">
-        <v>1938.219341074111</v>
+        <v>1407.650748651213</v>
       </c>
       <c r="BI59">
-        <v>1241.238742886275</v>
+        <v>913.5305257354393</v>
       </c>
       <c r="BJ59">
-        <v>1166.759533418668</v>
+        <v>911.9627550818061</v>
       </c>
       <c r="BK59">
-        <v>1837.389539070121</v>
+        <v>1826.688184141096</v>
       </c>
       <c r="BL59">
-        <v>924.4379639787863</v>
+        <v>1855.152985918876</v>
       </c>
       <c r="BM59">
-        <v>926.0709897901985</v>
+        <v>1343.27429527921</v>
       </c>
       <c r="BN59">
-        <v>727.1109283078251</v>
+        <v>1163.812548768141</v>
       </c>
       <c r="BO59">
-        <v>2123.169966883017</v>
+        <v>554.8423859225741</v>
       </c>
       <c r="BP59">
-        <v>1311.4793491402</v>
-      </c>
-      <c r="BQ59">
-        <v>888.755294252898</v>
-      </c>
-      <c r="BR59">
-        <v>603.9891222317212</v>
+        <v>526.1593743553841</v>
       </c>
     </row>
-    <row r="60" spans="1:70">
+    <row r="60" spans="1:68">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>884.664060168103</v>
+        <v>1363.065919964858</v>
       </c>
       <c r="C60">
-        <v>1701.700778929946</v>
+        <v>1557.798839443529</v>
       </c>
       <c r="D60">
-        <v>1745.652159462123</v>
+        <v>1472.071185163569</v>
       </c>
       <c r="E60">
-        <v>1743.127858202619</v>
+        <v>1642.817312299107</v>
       </c>
       <c r="F60">
-        <v>1442.635843638822</v>
+        <v>1593.418736434507</v>
       </c>
       <c r="G60">
-        <v>1710.840768191607</v>
+        <v>1433.284261670558</v>
       </c>
       <c r="H60">
-        <v>1725.976885747816</v>
+        <v>1493.210849219412</v>
       </c>
       <c r="I60">
-        <v>1919.356395785144</v>
+        <v>1391.862569598407</v>
       </c>
       <c r="J60">
-        <v>2067.295975715801</v>
+        <v>1561.081293424707</v>
       </c>
       <c r="K60">
-        <v>1804.241628585486</v>
+        <v>1230.347320607757</v>
       </c>
       <c r="L60">
-        <v>850.3744864772681</v>
+        <v>1688.531890945276</v>
       </c>
       <c r="M60">
-        <v>763.7364115487858</v>
+        <v>1827.288011176315</v>
       </c>
       <c r="N60">
-        <v>829.7429378331759</v>
+        <v>1781.394205713586</v>
       </c>
       <c r="O60">
-        <v>477.1729449657549</v>
+        <v>2291.519972519654</v>
       </c>
       <c r="P60">
-        <v>601.1618787444638</v>
+        <v>2394.334836875984</v>
       </c>
       <c r="Q60">
-        <v>502.3850567774526</v>
+        <v>2428.019000270091</v>
       </c>
       <c r="R60">
-        <v>498.6764094174754</v>
+        <v>2403.323618201605</v>
       </c>
       <c r="S60">
-        <v>487.2746597655182</v>
+        <v>2418.144006797737</v>
       </c>
       <c r="T60">
-        <v>574.0517911549075</v>
+        <v>2408.76541096878</v>
       </c>
       <c r="U60">
-        <v>1928.88262363035</v>
+        <v>1998.108561003365</v>
       </c>
       <c r="V60">
-        <v>1925.562771150913</v>
+        <v>1811.550959051569</v>
       </c>
       <c r="W60">
-        <v>1155.087307953641</v>
+        <v>1233.80084998648</v>
       </c>
       <c r="X60">
-        <v>1249.75392383311</v>
+        <v>1176.443600805269</v>
       </c>
       <c r="Y60">
-        <v>1074.02664180166</v>
+        <v>1213.385035850192</v>
       </c>
       <c r="Z60">
-        <v>1168.461046046294</v>
+        <v>1145.070568421152</v>
       </c>
       <c r="AA60">
-        <v>1155.413555245387</v>
+        <v>1023.827109311367</v>
       </c>
       <c r="AB60">
-        <v>1001.330370885244</v>
+        <v>1129.549040485611</v>
       </c>
       <c r="AC60">
-        <v>1254.28923226837</v>
+        <v>1046.110685585852</v>
       </c>
       <c r="AD60">
-        <v>1878.791859167728</v>
+        <v>154.3497765054879</v>
       </c>
       <c r="AE60">
-        <v>1990.794068289061</v>
+        <v>139.662290846286</v>
       </c>
       <c r="AF60">
-        <v>1880.431998155716</v>
+        <v>157.7737680260061</v>
       </c>
       <c r="AG60">
-        <v>1949.329627669907</v>
+        <v>91.5365342015964</v>
       </c>
       <c r="AH60">
-        <v>1888.715619438715</v>
+        <v>194.3080604984109</v>
       </c>
       <c r="AI60">
-        <v>2037.314160125034</v>
+        <v>119.6200444336781</v>
       </c>
       <c r="AJ60">
-        <v>1888.6539642769</v>
+        <v>175.8345670682881</v>
       </c>
       <c r="AK60">
-        <v>1815.390980051227</v>
+        <v>1760.24542746924</v>
       </c>
       <c r="AL60">
-        <v>2010.018846732336</v>
+        <v>1910.805361180127</v>
       </c>
       <c r="AM60">
-        <v>1886.255443461991</v>
+        <v>1896.169008029488</v>
       </c>
       <c r="AN60">
-        <v>2025.745443720265</v>
+        <v>1985.244539547278</v>
       </c>
       <c r="AO60">
-        <v>1924.013457633382</v>
+        <v>1991.472291670931</v>
       </c>
       <c r="AP60">
-        <v>1745.34732328593</v>
+        <v>1730.179584954766</v>
       </c>
       <c r="AQ60">
-        <v>185.2080631280368</v>
+        <v>2045.689201081444</v>
       </c>
       <c r="AR60">
-        <v>84.88242856402188</v>
+        <v>1948.689656648729</v>
       </c>
       <c r="AS60">
-        <v>77.22477293859652</v>
+        <v>2035.000802441728</v>
       </c>
       <c r="AT60">
-        <v>318.5829613830367</v>
+        <v>2347.419548483661</v>
       </c>
       <c r="AU60">
-        <v>122.1189719483471</v>
+        <v>2030.763553348598</v>
       </c>
       <c r="AV60">
-        <v>90.89077777071019</v>
+        <v>1956.68061101062</v>
       </c>
       <c r="AW60">
-        <v>186.4087040442641</v>
+        <v>2159.534694538353</v>
       </c>
       <c r="AX60">
-        <v>1135.710076907996</v>
+        <v>895.6012587238582</v>
       </c>
       <c r="AY60">
-        <v>1266.42085601219</v>
+        <v>785.5390143136874</v>
       </c>
       <c r="AZ60">
-        <v>1107.035065643071</v>
+        <v>924.1038638262729</v>
       </c>
       <c r="BA60">
-        <v>1232.367267912843</v>
+        <v>814.5278301382656</v>
       </c>
       <c r="BB60">
-        <v>1054.368148375678</v>
+        <v>982.2634868763841</v>
       </c>
       <c r="BC60">
-        <v>1249.257996501709</v>
+        <v>820.1242506416673</v>
       </c>
       <c r="BD60">
-        <v>1226.665878968716</v>
+        <v>873.117212966844</v>
       </c>
       <c r="BE60">
-        <v>1132.274452407511</v>
+        <v>956.2004780248433</v>
       </c>
       <c r="BF60">
-        <v>1026.297129141271</v>
+        <v>1010.740801341844</v>
       </c>
       <c r="BG60">
-        <v>1938.219341074111</v>
+        <v>1407.650748651213</v>
       </c>
       <c r="BH60">
         <v>0</v>
       </c>
       <c r="BI60">
-        <v>1200.563879321306</v>
+        <v>1172.002872534323</v>
       </c>
       <c r="BJ60">
+        <v>1182.168933681612</v>
+      </c>
+      <c r="BK60">
+        <v>2091.937281834237</v>
+      </c>
+      <c r="BL60">
         <v>2031.026864231963</v>
       </c>
-      <c r="BK60">
-        <v>595.6403185138954</v>
-      </c>
-      <c r="BL60">
-        <v>1041.883580087705</v>
-      </c>
       <c r="BM60">
-        <v>1036.979786952485</v>
+        <v>837.9857100236725</v>
       </c>
       <c r="BN60">
-        <v>1980.803794627939</v>
+        <v>1804.20225695649</v>
       </c>
       <c r="BO60">
-        <v>644.7264663011945</v>
+        <v>1902.341888641211</v>
       </c>
       <c r="BP60">
-        <v>766.9677249147767</v>
-      </c>
-      <c r="BQ60">
-        <v>1709.38400248358</v>
-      </c>
-      <c r="BR60">
-        <v>1441.990719494167</v>
+        <v>1779.282579994015</v>
       </c>
     </row>
-    <row r="61" spans="1:70">
+    <row r="61" spans="1:68">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>711.6425909570174</v>
+        <v>195.8612029609603</v>
       </c>
       <c r="C61">
-        <v>1359.186268835023</v>
+        <v>852.4922587104772</v>
       </c>
       <c r="D61">
-        <v>1323.028818825464</v>
+        <v>847.2014612310888</v>
       </c>
       <c r="E61">
-        <v>1442.363629012531</v>
+        <v>926.2958504795744</v>
       </c>
       <c r="F61">
-        <v>1246.624384541759</v>
+        <v>686.8802471349215</v>
       </c>
       <c r="G61">
-        <v>1275.291749450796</v>
+        <v>801.8222855777395</v>
       </c>
       <c r="H61">
-        <v>1326.662909002822</v>
+        <v>840.697287177625</v>
       </c>
       <c r="I61">
-        <v>1371.408505867791</v>
+        <v>963.5372908596964</v>
       </c>
       <c r="J61">
-        <v>1565.46664677748</v>
+        <v>1142.996794041617</v>
       </c>
       <c r="K61">
-        <v>1193.282061888619</v>
+        <v>813.3573798812506</v>
       </c>
       <c r="L61">
-        <v>1051.898826472492</v>
+        <v>519.428549453612</v>
       </c>
       <c r="M61">
-        <v>1155.531978068436</v>
+        <v>655.2851442800174</v>
       </c>
       <c r="N61">
-        <v>1134.718536872503</v>
+        <v>611.4349415036526</v>
       </c>
       <c r="O61">
-        <v>1507.140087380782</v>
+        <v>1165.86120200216</v>
       </c>
       <c r="P61">
-        <v>1620.678432823412</v>
+        <v>1253.817730542188</v>
       </c>
       <c r="Q61">
-        <v>1626.790442310934</v>
+        <v>1322.333620232733</v>
       </c>
       <c r="R61">
-        <v>1605.839984841346</v>
+        <v>1292.256990627331</v>
       </c>
       <c r="S61">
-        <v>1615.471585001402</v>
+        <v>1315.40540789314</v>
       </c>
       <c r="T61">
-        <v>1626.666452496092</v>
+        <v>1276.662813174628</v>
       </c>
       <c r="U61">
-        <v>1783.048785129218</v>
+        <v>1239.907576955421</v>
       </c>
       <c r="V61">
-        <v>1653.917077628037</v>
+        <v>1140.065653795217</v>
       </c>
       <c r="W61">
-        <v>750.0142203004176</v>
+        <v>190.3461656461427</v>
       </c>
       <c r="X61">
-        <v>761.8634964138597</v>
+        <v>251.2485098267865</v>
       </c>
       <c r="Y61">
-        <v>664.14634846835</v>
+        <v>85.59533807713977</v>
       </c>
       <c r="Z61">
-        <v>661.8196985680489</v>
+        <v>141.9736948328132</v>
       </c>
       <c r="AA61">
-        <v>492.9682183206979</v>
+        <v>148.6367094730563</v>
       </c>
       <c r="AB61">
-        <v>477.8932217738862</v>
+        <v>117.9859666223188</v>
       </c>
       <c r="AC61">
-        <v>626.6041405400586</v>
+        <v>212.5585702283693</v>
       </c>
       <c r="AD61">
-        <v>690.0739363765364</v>
+        <v>1022.130362151231</v>
       </c>
       <c r="AE61">
-        <v>790.2716637478502</v>
+        <v>1188.470585045698</v>
       </c>
       <c r="AF61">
-        <v>694.9388520392203</v>
+        <v>1015.024868005454</v>
       </c>
       <c r="AG61">
-        <v>762.0133815271196</v>
+        <v>1080.731834364349</v>
       </c>
       <c r="AH61">
-        <v>688.1807911071337</v>
+        <v>1097.665164527991</v>
       </c>
       <c r="AI61">
-        <v>861.2446726499129</v>
+        <v>1135.245997305269</v>
       </c>
       <c r="AJ61">
-        <v>688.6889104345007</v>
+        <v>1084.856561375734</v>
       </c>
       <c r="AK61">
-        <v>1562.645844682351</v>
+        <v>1038.143737194014</v>
       </c>
       <c r="AL61">
-        <v>1763.072252411024</v>
+        <v>1246.466687653696</v>
       </c>
       <c r="AM61">
-        <v>1692.331084509261</v>
+        <v>1157.449317210927</v>
       </c>
       <c r="AN61">
-        <v>1820.655463308911</v>
+        <v>1294.180941919038</v>
       </c>
       <c r="AO61">
-        <v>1776.177044746465</v>
+        <v>1233.243039441973</v>
       </c>
       <c r="AP61">
-        <v>1505.713497514499</v>
+        <v>974.1284636179196</v>
       </c>
       <c r="AQ61">
-        <v>1233.912764539875</v>
+        <v>984.3392892958194</v>
       </c>
       <c r="AR61">
-        <v>1120.086291231054</v>
+        <v>958.754730636142</v>
       </c>
       <c r="AS61">
-        <v>1211.039124508209</v>
+        <v>1014.082949463529</v>
       </c>
       <c r="AT61">
-        <v>1518.774121307565</v>
+        <v>1322.439833931567</v>
       </c>
       <c r="AU61">
-        <v>1211.55125713375</v>
+        <v>992.8176436158096</v>
       </c>
       <c r="AV61">
-        <v>1122.992962590376</v>
+        <v>998.5861473222578</v>
       </c>
       <c r="AW61">
-        <v>1340.552011026887</v>
+        <v>1110.047768628916</v>
       </c>
       <c r="AX61">
-        <v>92.83923101141514</v>
+        <v>494.833597188583</v>
       </c>
       <c r="AY61">
-        <v>82.73575216671894</v>
+        <v>660.9000275254677</v>
       </c>
       <c r="AZ61">
-        <v>132.439047714421</v>
+        <v>458.6943357189705</v>
       </c>
       <c r="BA61">
-        <v>47.86723232474374</v>
+        <v>630.4074846805232</v>
       </c>
       <c r="BB61">
-        <v>146.1958182672639</v>
+        <v>526.0714553750706</v>
       </c>
       <c r="BC61">
-        <v>113.7982657224489</v>
+        <v>696.4605727600866</v>
       </c>
       <c r="BD61">
-        <v>176.3212728503347</v>
+        <v>746.4392815447875</v>
       </c>
       <c r="BE61">
-        <v>181.0294508604912</v>
+        <v>700.7841583932852</v>
       </c>
       <c r="BF61">
-        <v>174.3381778198422</v>
+        <v>523.7476946067641</v>
       </c>
       <c r="BG61">
-        <v>1241.238742886275</v>
+        <v>913.5305257354393</v>
       </c>
       <c r="BH61">
-        <v>1200.563879321306</v>
+        <v>1172.002872534323</v>
       </c>
       <c r="BI61">
         <v>0</v>
       </c>
       <c r="BJ61">
-        <v>837.9857100236725</v>
+        <v>10.52010488416347</v>
       </c>
       <c r="BK61">
-        <v>1508.801489625339</v>
+        <v>1054.533851223697</v>
       </c>
       <c r="BL61">
+        <v>1041.883580087705</v>
+      </c>
+      <c r="BM61">
         <v>583.3517638792836</v>
       </c>
-      <c r="BM61">
-        <v>592.7191049241602</v>
-      </c>
       <c r="BN61">
-        <v>1718.833623049343</v>
+        <v>632.2000152834812</v>
       </c>
       <c r="BO61">
-        <v>1723.073257812295</v>
+        <v>1088.941825254025</v>
       </c>
       <c r="BP61">
-        <v>1134.265647738116</v>
-      </c>
-      <c r="BQ61">
-        <v>1631.108315038781</v>
-      </c>
-      <c r="BR61">
-        <v>1138.439630838591</v>
+        <v>901.4763599118126</v>
       </c>
     </row>
-    <row r="62" spans="1:70">
+    <row r="62" spans="1:68">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1363.065919964858</v>
+        <v>186.7014009390883</v>
       </c>
       <c r="C62">
-        <v>1557.798839443529</v>
+        <v>848.2048662336437</v>
       </c>
       <c r="D62">
-        <v>1472.071185163569</v>
+        <v>844.1581552736816</v>
       </c>
       <c r="E62">
-        <v>1642.817312299107</v>
+        <v>921.5019160269751</v>
       </c>
       <c r="F62">
-        <v>1593.418736434507</v>
+        <v>680.0964184019164</v>
       </c>
       <c r="G62">
-        <v>1433.284261670558</v>
+        <v>798.964427157464</v>
       </c>
       <c r="H62">
-        <v>1493.210849219412</v>
+        <v>837.2759328018102</v>
       </c>
       <c r="I62">
-        <v>1391.862569598407</v>
+        <v>962.5530596779943</v>
       </c>
       <c r="J62">
-        <v>1561.081293424707</v>
+        <v>1141.259117788528</v>
       </c>
       <c r="K62">
-        <v>1230.347320607757</v>
+        <v>813.5903516547797</v>
       </c>
       <c r="L62">
-        <v>1688.531890945276</v>
+        <v>509.0052074122074</v>
       </c>
       <c r="M62">
-        <v>1827.288011176315</v>
+        <v>645.1283854531215</v>
       </c>
       <c r="N62">
-        <v>1781.394205713586</v>
+        <v>601.0523170149982</v>
       </c>
       <c r="O62">
-        <v>2291.519972519654</v>
+        <v>1157.569761778096</v>
       </c>
       <c r="P62">
-        <v>2394.334836875984</v>
+        <v>1245.055241662157</v>
       </c>
       <c r="Q62">
-        <v>2428.019000270091</v>
+        <v>1314.473630567229</v>
       </c>
       <c r="R62">
-        <v>2403.323618201605</v>
+        <v>1284.280436759904</v>
       </c>
       <c r="S62">
-        <v>2418.144006797737</v>
+        <v>1307.621799793325</v>
       </c>
       <c r="T62">
-        <v>2408.76541096878</v>
+        <v>1268.135195719774</v>
       </c>
       <c r="U62">
-        <v>1998.108561003365</v>
+        <v>1233.631829044787</v>
       </c>
       <c r="V62">
-        <v>1811.550959051569</v>
+        <v>1135.143293815972</v>
       </c>
       <c r="W62">
-        <v>1233.80084998648</v>
+        <v>185.380664335221</v>
       </c>
       <c r="X62">
-        <v>1176.443600805269</v>
+        <v>249.6660860174658</v>
       </c>
       <c r="Y62">
-        <v>1213.385035850192</v>
+        <v>78.93393272049808</v>
       </c>
       <c r="Z62">
-        <v>1145.070568421152</v>
+        <v>142.251502164807</v>
       </c>
       <c r="AA62">
-        <v>1023.827109311367</v>
+        <v>158.6099156594182</v>
       </c>
       <c r="AB62">
-        <v>1129.549040485611</v>
+        <v>124.8445048005489</v>
       </c>
       <c r="AC62">
-        <v>1046.110685585852</v>
+        <v>217.3202768795286</v>
       </c>
       <c r="AD62">
-        <v>154.3497765054879</v>
+        <v>1032.381886158383</v>
       </c>
       <c r="AE62">
-        <v>139.662290846286</v>
+        <v>1198.883139299992</v>
       </c>
       <c r="AF62">
-        <v>157.7737680260061</v>
+        <v>1025.229393668828</v>
       </c>
       <c r="AG62">
-        <v>91.5365342015964</v>
+        <v>1090.881296104348</v>
       </c>
       <c r="AH62">
-        <v>194.3080604984109</v>
+        <v>1108.130174645411</v>
       </c>
       <c r="AI62">
-        <v>119.6200444336781</v>
+        <v>1145.097544372103</v>
       </c>
       <c r="AJ62">
-        <v>175.8345670682881</v>
+        <v>1095.294353644035</v>
       </c>
       <c r="AK62">
-        <v>1760.24542746924</v>
+        <v>1032.860823297894</v>
       </c>
       <c r="AL62">
-        <v>1910.805361180127</v>
+        <v>1241.349320380751</v>
       </c>
       <c r="AM62">
-        <v>1896.169008029488</v>
+        <v>1151.60755017754</v>
       </c>
       <c r="AN62">
-        <v>1985.244539547278</v>
+        <v>1288.623461825902</v>
       </c>
       <c r="AO62">
-        <v>1991.472291670931</v>
+        <v>1226.980640090503</v>
       </c>
       <c r="AP62">
-        <v>1730.179584954766</v>
+        <v>968.584991678762</v>
       </c>
       <c r="AQ62">
-        <v>2045.689201081444</v>
+        <v>977.8957910394303</v>
       </c>
       <c r="AR62">
-        <v>1948.689656648729</v>
+        <v>954.0155571503179</v>
       </c>
       <c r="AS62">
-        <v>2035.000802441728</v>
+        <v>1008.538719648117</v>
       </c>
       <c r="AT62">
-        <v>2347.419548483661</v>
+        <v>1316.37174879527</v>
       </c>
       <c r="AU62">
-        <v>2030.763553348598</v>
+        <v>986.9209997881953</v>
       </c>
       <c r="AV62">
-        <v>1956.68061101062</v>
+        <v>994.4296479911783</v>
       </c>
       <c r="AW62">
-        <v>2159.534694538353</v>
+        <v>1103.70538081685</v>
       </c>
       <c r="AX62">
-        <v>895.6012587238582</v>
+        <v>503.9451576074369</v>
       </c>
       <c r="AY62">
-        <v>785.5390143136874</v>
+        <v>670.4760646801512</v>
       </c>
       <c r="AZ62">
-        <v>924.1038638262729</v>
+        <v>467.6238717002381</v>
       </c>
       <c r="BA62">
-        <v>814.5278301382656</v>
+        <v>639.8412387617891</v>
       </c>
       <c r="BB62">
-        <v>982.2634868763841</v>
+        <v>534.0254746736789</v>
       </c>
       <c r="BC62">
-        <v>820.1242506416673</v>
+        <v>705.7295372305618</v>
       </c>
       <c r="BD62">
-        <v>873.117212966844</v>
+        <v>755.2710978282784</v>
       </c>
       <c r="BE62">
-        <v>956.2004780248433</v>
+        <v>708.9127409141803</v>
       </c>
       <c r="BF62">
-        <v>1010.740801341844</v>
+        <v>531.3209731636168</v>
       </c>
       <c r="BG62">
-        <v>1166.759533418668</v>
+        <v>911.9627550818061</v>
       </c>
       <c r="BH62">
-        <v>2031.026864231963</v>
+        <v>1182.168933681612</v>
       </c>
       <c r="BI62">
-        <v>837.9857100236725</v>
+        <v>10.52010488416347</v>
       </c>
       <c r="BJ62">
         <v>0</v>
       </c>
       <c r="BK62">
-        <v>2264.281544911652</v>
+        <v>1048.547213529381</v>
       </c>
       <c r="BL62">
-        <v>1172.002872534323</v>
+        <v>1036.979786952485</v>
       </c>
       <c r="BM62">
-        <v>1182.168933681612</v>
+        <v>592.7191049241602</v>
       </c>
       <c r="BN62">
-        <v>1866.505398269182</v>
+        <v>622.0381906087567</v>
       </c>
       <c r="BO62">
-        <v>2507.266083355122</v>
+        <v>1082.280958184774</v>
       </c>
       <c r="BP62">
-        <v>1804.20225695649</v>
-      </c>
-      <c r="BQ62">
-        <v>1928.928433648853</v>
-      </c>
-      <c r="BR62">
-        <v>1459.03531867059</v>
+        <v>894.3902064910091</v>
       </c>
     </row>
-    <row r="63" spans="1:70">
+    <row r="63" spans="1:68">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>916.2528796068528</v>
+        <v>883.3742828612824</v>
       </c>
       <c r="C63">
-        <v>1466.768815349677</v>
+        <v>1660.38437894131</v>
       </c>
       <c r="D63">
-        <v>1541.215483588659</v>
+        <v>1711.133888770406</v>
       </c>
       <c r="E63">
-        <v>1480.026153331764</v>
+        <v>1696.345260234042</v>
       </c>
       <c r="F63">
-        <v>1196.667606932013</v>
+        <v>1395.977117117921</v>
       </c>
       <c r="G63">
-        <v>1519.598592847084</v>
+        <v>1678.737757096997</v>
       </c>
       <c r="H63">
-        <v>1513.959249155139</v>
+        <v>1689.680848533339</v>
       </c>
       <c r="I63">
-        <v>1746.375486600122</v>
+        <v>1892.988275316412</v>
       </c>
       <c r="J63">
-        <v>1850.65722217864</v>
+        <v>2032.812953807398</v>
       </c>
       <c r="K63">
-        <v>1681.93428129321</v>
+        <v>1787.561584301382</v>
       </c>
       <c r="L63">
-        <v>661.8984315048351</v>
+        <v>800.0381752860058</v>
       </c>
       <c r="M63">
-        <v>508.7610730516744</v>
+        <v>695.8790240373536</v>
       </c>
       <c r="N63">
-        <v>582.9636017534133</v>
+        <v>766.9760667998091</v>
       </c>
       <c r="O63">
-        <v>163.2698404735119</v>
+        <v>350.7424359329842</v>
       </c>
       <c r="P63">
-        <v>158.1479595420723</v>
+        <v>475.0166406504185</v>
       </c>
       <c r="Q63">
-        <v>320.3913462133663</v>
+        <v>386.8104419625186</v>
       </c>
       <c r="R63">
-        <v>283.5077884078405</v>
+        <v>379.2013315560839</v>
       </c>
       <c r="S63">
-        <v>325.4528365527249</v>
+        <v>372.3834106138758</v>
       </c>
       <c r="T63">
-        <v>202.1208233013987</v>
+        <v>449.2142048790022</v>
       </c>
       <c r="U63">
-        <v>1565.159550090287</v>
+        <v>1862.480377176348</v>
       </c>
       <c r="V63">
-        <v>1619.235773552512</v>
+        <v>1871.213145122385</v>
       </c>
       <c r="W63">
-        <v>1129.840313371112</v>
+        <v>1149.420135795328</v>
       </c>
       <c r="X63">
-        <v>1221.868312529984</v>
+        <v>1245.565216415441</v>
       </c>
       <c r="Y63">
-        <v>1097.44277849735</v>
+        <v>1077.038176447182</v>
       </c>
       <c r="Z63">
-        <v>1188.311478686784</v>
+        <v>1172.980467476584</v>
       </c>
       <c r="AA63">
-        <v>1258.326258966706</v>
+        <v>1178.17909143062</v>
       </c>
       <c r="AB63">
-        <v>1135.923192469395</v>
+        <v>1027.675672888834</v>
       </c>
       <c r="AC63">
-        <v>1293.235774054829</v>
+        <v>1264.782310855268</v>
       </c>
       <c r="AD63">
-        <v>2110.709256069142</v>
+        <v>1938.515194882768</v>
       </c>
       <c r="AE63">
-        <v>2258.948386977429</v>
+        <v>2058.87709921736</v>
       </c>
       <c r="AF63">
-        <v>2106.610121761337</v>
+        <v>1938.938021155598</v>
       </c>
       <c r="AG63">
-        <v>2174.671847428844</v>
+        <v>2008.088157812222</v>
       </c>
       <c r="AH63">
-        <v>2160.739648714421</v>
+        <v>1957.055800042399</v>
       </c>
       <c r="AI63">
-        <v>2239.678751171627</v>
+        <v>2091.702074245717</v>
       </c>
       <c r="AJ63">
-        <v>2153.345884550181</v>
+        <v>1955.433456871262</v>
       </c>
       <c r="AK63">
-        <v>1516.930927015196</v>
+        <v>1761.86387253833</v>
       </c>
       <c r="AL63">
-        <v>1681.208079557515</v>
+        <v>1951.485835955209</v>
       </c>
       <c r="AM63">
-        <v>1549.842212736917</v>
+        <v>1825.319035875726</v>
       </c>
       <c r="AN63">
-        <v>1676.306686265767</v>
+        <v>1962.940616709448</v>
       </c>
       <c r="AO63">
-        <v>1561.802834484587</v>
+        <v>1857.900057229359</v>
       </c>
       <c r="AP63">
-        <v>1452.605185065417</v>
+        <v>1692.422543239257</v>
       </c>
       <c r="AQ63">
-        <v>417.8710579571114</v>
+        <v>89.15991610849737</v>
       </c>
       <c r="AR63">
-        <v>604.2049819798124</v>
+        <v>167.90667054469</v>
       </c>
       <c r="AS63">
-        <v>520.9158042898537</v>
+        <v>65.62922319399613</v>
       </c>
       <c r="AT63">
-        <v>556.3851193328604</v>
+        <v>268.0980369362811</v>
       </c>
       <c r="AU63">
-        <v>480.4670341119985</v>
+        <v>62.57201468096854</v>
       </c>
       <c r="AV63">
-        <v>667.7233539455349</v>
+        <v>210.8746859216132</v>
       </c>
       <c r="AW63">
-        <v>436.2039082207747</v>
+        <v>71.34116510957645</v>
       </c>
       <c r="AX63">
-        <v>1423.310155754048</v>
+        <v>1200.454760780552</v>
       </c>
       <c r="AY63">
-        <v>1588.26468333289</v>
+        <v>1340.683226220451</v>
       </c>
       <c r="AZ63">
-        <v>1385.936026525581</v>
+        <v>1169.310408332252</v>
       </c>
       <c r="BA63">
-        <v>1551.462015083532</v>
+        <v>1305.620988941585</v>
       </c>
       <c r="BB63">
-        <v>1374.103391187238</v>
+        <v>1125.34323984577</v>
       </c>
       <c r="BC63">
-        <v>1590.948632989391</v>
+        <v>1327.812149361359</v>
       </c>
       <c r="BD63">
-        <v>1594.517431811859</v>
+        <v>1310.883602318961</v>
       </c>
       <c r="BE63">
-        <v>1505.78530157909</v>
+        <v>1216.782756884049</v>
       </c>
       <c r="BF63">
-        <v>1350.504864670973</v>
+        <v>1097.872541497174</v>
       </c>
       <c r="BG63">
-        <v>1837.389539070121</v>
+        <v>1826.688184141096</v>
       </c>
       <c r="BH63">
-        <v>595.6403185138954</v>
+        <v>2091.937281834237</v>
       </c>
       <c r="BI63">
-        <v>1508.801489625339</v>
+        <v>1054.533851223697</v>
       </c>
       <c r="BJ63">
-        <v>2264.281544911652</v>
+        <v>1048.547213529381</v>
       </c>
       <c r="BK63">
         <v>0</v>
       </c>
       <c r="BL63">
-        <v>1112.046094880984</v>
+        <v>126.4339221440785</v>
       </c>
       <c r="BM63">
-        <v>1102.953979270969</v>
+        <v>1270.956389305974</v>
       </c>
       <c r="BN63">
-        <v>1662.535417522236</v>
+        <v>702.4369588433714</v>
       </c>
       <c r="BO63">
-        <v>286.0861752077946</v>
+        <v>1707.261361446016</v>
       </c>
       <c r="BP63">
-        <v>528.577815642534</v>
-      </c>
-      <c r="BQ63">
-        <v>1347.333836389808</v>
-      </c>
-      <c r="BR63">
-        <v>1250.982464509929</v>
+        <v>1528.338003054886</v>
       </c>
     </row>
-    <row r="64" spans="1:70">
+    <row r="64" spans="1:68">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>195.8612029609603</v>
+        <v>884.664060168103</v>
       </c>
       <c r="C64">
-        <v>852.4922587104772</v>
+        <v>1701.700778929946</v>
       </c>
       <c r="D64">
-        <v>847.2014612310888</v>
+        <v>1745.652159462123</v>
       </c>
       <c r="E64">
-        <v>926.2958504795744</v>
+        <v>1743.127858202619</v>
       </c>
       <c r="F64">
-        <v>686.8802471349215</v>
+        <v>1442.635843638822</v>
       </c>
       <c r="G64">
-        <v>801.8222855777395</v>
+        <v>1710.840768191607</v>
       </c>
       <c r="H64">
-        <v>840.697287177625</v>
+        <v>1725.976885747816</v>
       </c>
       <c r="I64">
-        <v>963.5372908596964</v>
+        <v>1919.356395785144</v>
       </c>
       <c r="J64">
-        <v>1142.996794041617</v>
+        <v>2067.295975715801</v>
       </c>
       <c r="K64">
-        <v>813.3573798812506</v>
+        <v>1804.241628585486</v>
       </c>
       <c r="L64">
-        <v>519.428549453612</v>
+        <v>850.3744864772681</v>
       </c>
       <c r="M64">
-        <v>655.2851442800174</v>
+        <v>763.7364115487858</v>
       </c>
       <c r="N64">
-        <v>611.4349415036526</v>
+        <v>829.7429378331759</v>
       </c>
       <c r="O64">
-        <v>1165.86120200216</v>
+        <v>477.1729449657549</v>
       </c>
       <c r="P64">
-        <v>1253.817730542188</v>
+        <v>601.1618787444638</v>
       </c>
       <c r="Q64">
-        <v>1322.333620232733</v>
+        <v>502.3850567774526</v>
       </c>
       <c r="R64">
-        <v>1292.256990627331</v>
+        <v>498.6764094174754</v>
       </c>
       <c r="S64">
-        <v>1315.40540789314</v>
+        <v>487.2746597655182</v>
       </c>
       <c r="T64">
-        <v>1276.662813174628</v>
+        <v>574.0517911549075</v>
       </c>
       <c r="U64">
-        <v>1239.907576955421</v>
+        <v>1928.88262363035</v>
       </c>
       <c r="V64">
-        <v>1140.065653795217</v>
+        <v>1925.562771150913</v>
       </c>
       <c r="W64">
-        <v>190.3461656461427</v>
+        <v>1155.087307953641</v>
       </c>
       <c r="X64">
-        <v>251.2485098267865</v>
+        <v>1249.75392383311</v>
       </c>
       <c r="Y64">
-        <v>85.59533807713977</v>
+        <v>1074.02664180166</v>
       </c>
       <c r="Z64">
-        <v>141.9736948328132</v>
+        <v>1168.461046046294</v>
       </c>
       <c r="AA64">
-        <v>148.6367094730563</v>
+        <v>1155.413555245387</v>
       </c>
       <c r="AB64">
-        <v>117.9859666223188</v>
+        <v>1001.330370885244</v>
       </c>
       <c r="AC64">
-        <v>212.5585702283693</v>
+        <v>1254.28923226837</v>
       </c>
       <c r="AD64">
-        <v>1022.130362151231</v>
+        <v>1878.791859167728</v>
       </c>
       <c r="AE64">
-        <v>1188.470585045698</v>
+        <v>1990.794068289061</v>
       </c>
       <c r="AF64">
-        <v>1015.024868005454</v>
+        <v>1880.431998155716</v>
       </c>
       <c r="AG64">
-        <v>1080.731834364349</v>
+        <v>1949.329627669907</v>
       </c>
       <c r="AH64">
-        <v>1097.665164527991</v>
+        <v>1888.715619438715</v>
       </c>
       <c r="AI64">
-        <v>1135.245997305269</v>
+        <v>2037.314160125034</v>
       </c>
       <c r="AJ64">
-        <v>1084.856561375734</v>
+        <v>1888.6539642769</v>
       </c>
       <c r="AK64">
-        <v>1038.143737194014</v>
+        <v>1815.390980051227</v>
       </c>
       <c r="AL64">
-        <v>1246.466687653696</v>
+        <v>2010.018846732336</v>
       </c>
       <c r="AM64">
-        <v>1157.449317210927</v>
+        <v>1886.255443461991</v>
       </c>
       <c r="AN64">
-        <v>1294.180941919038</v>
+        <v>2025.745443720265</v>
       </c>
       <c r="AO64">
-        <v>1233.243039441973</v>
+        <v>1924.013457633382</v>
       </c>
       <c r="AP64">
-        <v>974.1284636179196</v>
+        <v>1745.34732328593</v>
       </c>
       <c r="AQ64">
-        <v>984.3392892958194</v>
+        <v>185.2080631280368</v>
       </c>
       <c r="AR64">
-        <v>958.754730636142</v>
+        <v>84.88242856402188</v>
       </c>
       <c r="AS64">
-        <v>1014.082949463529</v>
+        <v>77.22477293859652</v>
       </c>
       <c r="AT64">
-        <v>1322.439833931567</v>
+        <v>318.5829613830367</v>
       </c>
       <c r="AU64">
-        <v>992.8176436158096</v>
+        <v>122.1189719483471</v>
       </c>
       <c r="AV64">
-        <v>998.5861473222578</v>
+        <v>90.89077777071019</v>
       </c>
       <c r="AW64">
-        <v>1110.047768628916</v>
+        <v>186.4087040442641</v>
       </c>
       <c r="AX64">
-        <v>494.833597188583</v>
+        <v>1135.710076907996</v>
       </c>
       <c r="AY64">
-        <v>660.9000275254677</v>
+        <v>1266.42085601219</v>
       </c>
       <c r="AZ64">
-        <v>458.6943357189705</v>
+        <v>1107.035065643071</v>
       </c>
       <c r="BA64">
-        <v>630.4074846805232</v>
+        <v>1232.367267912843</v>
       </c>
       <c r="BB64">
-        <v>526.0714553750706</v>
+        <v>1054.368148375678</v>
       </c>
       <c r="BC64">
-        <v>696.4605727600866</v>
+        <v>1249.257996501709</v>
       </c>
       <c r="BD64">
-        <v>746.4392815447875</v>
+        <v>1226.665878968716</v>
       </c>
       <c r="BE64">
-        <v>700.7841583932852</v>
+        <v>1132.274452407511</v>
       </c>
       <c r="BF64">
-        <v>523.7476946067641</v>
+        <v>1026.297129141271</v>
       </c>
       <c r="BG64">
-        <v>924.4379639787863</v>
+        <v>1855.152985918876</v>
       </c>
       <c r="BH64">
+        <v>2031.026864231963</v>
+      </c>
+      <c r="BI64">
         <v>1041.883580087705</v>
       </c>
-      <c r="BI64">
-        <v>583.3517638792836</v>
-      </c>
       <c r="BJ64">
-        <v>1172.002872534323</v>
+        <v>1036.979786952485</v>
       </c>
       <c r="BK64">
-        <v>1112.046094880984</v>
+        <v>126.4339221440785</v>
       </c>
       <c r="BL64">
         <v>0</v>
       </c>
       <c r="BM64">
-        <v>10.52010488416347</v>
+        <v>1200.563879321306</v>
       </c>
       <c r="BN64">
-        <v>1204.956276867916</v>
+        <v>766.9677249147767</v>
       </c>
       <c r="BO64">
-        <v>1374.951252136354</v>
+        <v>1771.518635252126</v>
       </c>
       <c r="BP64">
-        <v>632.2000152834812</v>
-      </c>
-      <c r="BQ64">
-        <v>1068.292415143964</v>
-      </c>
-      <c r="BR64">
-        <v>598.9607709428908</v>
+        <v>1587.814679023846</v>
       </c>
     </row>
-    <row r="65" spans="1:70">
+    <row r="65" spans="1:68">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>186.7014009390883</v>
+        <v>711.6425909570174</v>
       </c>
       <c r="C65">
-        <v>848.2048662336437</v>
+        <v>1359.186268835023</v>
       </c>
       <c r="D65">
-        <v>844.1581552736816</v>
+        <v>1323.028818825464</v>
       </c>
       <c r="E65">
-        <v>921.5019160269751</v>
+        <v>1442.363629012531</v>
       </c>
       <c r="F65">
-        <v>680.0964184019164</v>
+        <v>1246.624384541759</v>
       </c>
       <c r="G65">
-        <v>798.964427157464</v>
+        <v>1275.291749450796</v>
       </c>
       <c r="H65">
-        <v>837.2759328018102</v>
+        <v>1326.662909002822</v>
       </c>
       <c r="I65">
-        <v>962.5530596779943</v>
+        <v>1371.408505867791</v>
       </c>
       <c r="J65">
-        <v>1141.259117788528</v>
+        <v>1565.46664677748</v>
       </c>
       <c r="K65">
-        <v>813.5903516547797</v>
+        <v>1193.282061888619</v>
       </c>
       <c r="L65">
-        <v>509.0052074122074</v>
+        <v>1051.898826472492</v>
       </c>
       <c r="M65">
-        <v>645.1283854531215</v>
+        <v>1155.531978068436</v>
       </c>
       <c r="N65">
-        <v>601.0523170149982</v>
+        <v>1134.718536872503</v>
       </c>
       <c r="O65">
-        <v>1157.569761778096</v>
+        <v>1507.140087380782</v>
       </c>
       <c r="P65">
-        <v>1245.055241662157</v>
+        <v>1620.678432823412</v>
       </c>
       <c r="Q65">
-        <v>1314.473630567229</v>
+        <v>1626.790442310934</v>
       </c>
       <c r="R65">
-        <v>1284.280436759904</v>
+        <v>1605.839984841346</v>
       </c>
       <c r="S65">
-        <v>1307.621799793325</v>
+        <v>1615.471585001402</v>
       </c>
       <c r="T65">
-        <v>1268.135195719774</v>
+        <v>1626.666452496092</v>
       </c>
       <c r="U65">
-        <v>1233.631829044787</v>
+        <v>1783.048785129218</v>
       </c>
       <c r="V65">
-        <v>1135.143293815972</v>
+        <v>1653.917077628037</v>
       </c>
       <c r="W65">
-        <v>185.380664335221</v>
+        <v>750.0142203004176</v>
       </c>
       <c r="X65">
-        <v>249.6660860174658</v>
+        <v>761.8634964138597</v>
       </c>
       <c r="Y65">
-        <v>78.93393272049808</v>
+        <v>664.14634846835</v>
       </c>
       <c r="Z65">
-        <v>142.251502164807</v>
+        <v>661.8196985680489</v>
       </c>
       <c r="AA65">
-        <v>158.6099156594182</v>
+        <v>492.9682183206979</v>
       </c>
       <c r="AB65">
-        <v>124.8445048005489</v>
+        <v>477.8932217738862</v>
       </c>
       <c r="AC65">
-        <v>217.3202768795286</v>
+        <v>626.6041405400586</v>
       </c>
       <c r="AD65">
-        <v>1032.381886158383</v>
+        <v>690.0739363765364</v>
       </c>
       <c r="AE65">
-        <v>1198.883139299992</v>
+        <v>790.2716637478502</v>
       </c>
       <c r="AF65">
-        <v>1025.229393668828</v>
+        <v>694.9388520392203</v>
       </c>
       <c r="AG65">
-        <v>1090.881296104348</v>
+        <v>762.0133815271196</v>
       </c>
       <c r="AH65">
-        <v>1108.130174645411</v>
+        <v>688.1807911071337</v>
       </c>
       <c r="AI65">
-        <v>1145.097544372103</v>
+        <v>861.2446726499129</v>
       </c>
       <c r="AJ65">
-        <v>1095.294353644035</v>
+        <v>688.6889104345007</v>
       </c>
       <c r="AK65">
-        <v>1032.860823297894</v>
+        <v>1562.645844682351</v>
       </c>
       <c r="AL65">
-        <v>1241.349320380751</v>
+        <v>1763.072252411024</v>
       </c>
       <c r="AM65">
-        <v>1151.60755017754</v>
+        <v>1692.331084509261</v>
       </c>
       <c r="AN65">
-        <v>1288.623461825902</v>
+        <v>1820.655463308911</v>
       </c>
       <c r="AO65">
-        <v>1226.980640090503</v>
+        <v>1776.177044746465</v>
       </c>
       <c r="AP65">
-        <v>968.584991678762</v>
+        <v>1505.713497514499</v>
       </c>
       <c r="AQ65">
-        <v>977.8957910394303</v>
+        <v>1233.912764539875</v>
       </c>
       <c r="AR65">
-        <v>954.0155571503179</v>
+        <v>1120.086291231054</v>
       </c>
       <c r="AS65">
-        <v>1008.538719648117</v>
+        <v>1211.039124508209</v>
       </c>
       <c r="AT65">
-        <v>1316.37174879527</v>
+        <v>1518.774121307565</v>
       </c>
       <c r="AU65">
-        <v>986.9209997881953</v>
+        <v>1211.55125713375</v>
       </c>
       <c r="AV65">
-        <v>994.4296479911783</v>
+        <v>1122.992962590376</v>
       </c>
       <c r="AW65">
-        <v>1103.70538081685</v>
+        <v>1340.552011026887</v>
       </c>
       <c r="AX65">
-        <v>503.9451576074369</v>
+        <v>92.83923101141514</v>
       </c>
       <c r="AY65">
-        <v>670.4760646801512</v>
+        <v>82.73575216671894</v>
       </c>
       <c r="AZ65">
-        <v>467.6238717002381</v>
+        <v>132.439047714421</v>
       </c>
       <c r="BA65">
-        <v>639.8412387617891</v>
+        <v>47.86723232474374</v>
       </c>
       <c r="BB65">
-        <v>534.0254746736789</v>
+        <v>146.1958182672639</v>
       </c>
       <c r="BC65">
-        <v>705.7295372305618</v>
+        <v>113.7982657224489</v>
       </c>
       <c r="BD65">
-        <v>755.2710978282784</v>
+        <v>176.3212728503347</v>
       </c>
       <c r="BE65">
-        <v>708.9127409141803</v>
+        <v>181.0294508604912</v>
       </c>
       <c r="BF65">
-        <v>531.3209731636168</v>
+        <v>174.3381778198422</v>
       </c>
       <c r="BG65">
-        <v>926.0709897901985</v>
+        <v>1343.27429527921</v>
       </c>
       <c r="BH65">
-        <v>1036.979786952485</v>
+        <v>837.9857100236725</v>
       </c>
       <c r="BI65">
+        <v>583.3517638792836</v>
+      </c>
+      <c r="BJ65">
         <v>592.7191049241602</v>
       </c>
-      <c r="BJ65">
-        <v>1182.168933681612</v>
-      </c>
       <c r="BK65">
-        <v>1102.953979270969</v>
+        <v>1270.956389305974</v>
       </c>
       <c r="BL65">
-        <v>10.52010488416347</v>
+        <v>1200.563879321306</v>
       </c>
       <c r="BM65">
         <v>0</v>
       </c>
       <c r="BN65">
-        <v>1199.979992610751</v>
+        <v>1134.265647738116</v>
       </c>
       <c r="BO65">
-        <v>1366.378276819574</v>
+        <v>1641.304099054034</v>
       </c>
       <c r="BP65">
-        <v>622.0381906087567</v>
-      </c>
-      <c r="BQ65">
-        <v>1061.043291871934</v>
-      </c>
-      <c r="BR65">
-        <v>593.5516610676601</v>
+        <v>1463.097203546158</v>
       </c>
     </row>
-    <row r="66" spans="1:70">
+    <row r="66" spans="1:68">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1221.590840771053</v>
+        <v>444.4807380341777</v>
       </c>
       <c r="C66">
-        <v>359.766004432743</v>
+        <v>973.9035770057666</v>
       </c>
       <c r="D66">
-        <v>409.3115899139012</v>
+        <v>1036.697943582787</v>
       </c>
       <c r="E66">
-        <v>279.3347441312129</v>
+        <v>1001.829226493454</v>
       </c>
       <c r="F66">
-        <v>552.0944177793099</v>
+        <v>704.2541342233352</v>
       </c>
       <c r="G66">
-        <v>455.0421679207497</v>
+        <v>1010.164530176827</v>
       </c>
       <c r="H66">
-        <v>397.9578193491524</v>
+        <v>1011.952212190491</v>
       </c>
       <c r="I66">
-        <v>489.1587481930538</v>
+        <v>1233.979914218695</v>
       </c>
       <c r="J66">
-        <v>386.0059545403765</v>
+        <v>1354.512967436215</v>
       </c>
       <c r="K66">
-        <v>636.3547532521233</v>
+        <v>1157.902523535575</v>
       </c>
       <c r="L66">
-        <v>1130.558985542887</v>
+        <v>133.6379608907166</v>
       </c>
       <c r="M66">
-        <v>1230.23820810282</v>
+        <v>23.11806531000909</v>
       </c>
       <c r="N66">
-        <v>1157.485127094222</v>
+        <v>65.00493880913098</v>
       </c>
       <c r="O66">
-        <v>1808.002832952185</v>
+        <v>633.6633559695043</v>
       </c>
       <c r="P66">
-        <v>1813.309821528407</v>
+        <v>684.9509788719952</v>
       </c>
       <c r="Q66">
-        <v>1979.959966694061</v>
+        <v>808.506427460537</v>
       </c>
       <c r="R66">
-        <v>1942.690329001119</v>
+        <v>772.6005555114455</v>
       </c>
       <c r="S66">
-        <v>1982.810964629049</v>
+        <v>807.0846362137572</v>
       </c>
       <c r="T66">
-        <v>1862.883879339408</v>
+        <v>721.7219235503345</v>
       </c>
       <c r="U66">
-        <v>181.7274649317361</v>
+        <v>1162.381024826243</v>
       </c>
       <c r="V66">
-        <v>65.21900231899073</v>
+        <v>1169.956084851428</v>
       </c>
       <c r="W66">
-        <v>1014.653143399737</v>
+        <v>612.2475057228771</v>
       </c>
       <c r="X66">
-        <v>970.1680507184618</v>
+        <v>700.4811002457104</v>
       </c>
       <c r="Y66">
-        <v>1121.947959962095</v>
+        <v>597.9459394575954</v>
       </c>
       <c r="Z66">
-        <v>1081.45381886865</v>
+        <v>681.2218830004341</v>
       </c>
       <c r="AA66">
-        <v>1237.601639699895</v>
+        <v>780.4950058718167</v>
       </c>
       <c r="AB66">
-        <v>1321.20022881106</v>
+        <v>688.5144785931498</v>
       </c>
       <c r="AC66">
-        <v>1093.97472994699</v>
+        <v>787.0836537626774</v>
       </c>
       <c r="AD66">
-        <v>1775.176274303613</v>
+        <v>1654.130785129311</v>
       </c>
       <c r="AE66">
-        <v>1963.182382832724</v>
+        <v>1817.903394358936</v>
       </c>
       <c r="AF66">
-        <v>1756.930659284379</v>
+        <v>1647.193181815159</v>
       </c>
       <c r="AG66">
-        <v>1792.003072657228</v>
+        <v>1712.919267080712</v>
       </c>
       <c r="AH66">
-        <v>1916.122885965204</v>
+        <v>1724.943498316074</v>
       </c>
       <c r="AI66">
-        <v>1764.383336877404</v>
+        <v>1765.396697168663</v>
       </c>
       <c r="AJ66">
-        <v>1891.077743902579</v>
+        <v>1713.483312442349</v>
       </c>
       <c r="AK66">
-        <v>171.0729408862662</v>
+        <v>1061.191576363413</v>
       </c>
       <c r="AL66">
-        <v>45.46121710991425</v>
+        <v>1249.076219951066</v>
       </c>
       <c r="AM66">
-        <v>122.8075991715346</v>
+        <v>1122.977292471968</v>
       </c>
       <c r="AN66">
-        <v>119.3164830672237</v>
+        <v>1261.071511612498</v>
       </c>
       <c r="AO66">
-        <v>178.2202072975638</v>
+        <v>1157.605310892363</v>
       </c>
       <c r="AP66">
-        <v>240.710832554299</v>
+        <v>992.264037407499</v>
       </c>
       <c r="AQ66">
-        <v>1835.241950499271</v>
+        <v>613.2934335921838</v>
       </c>
       <c r="AR66">
-        <v>1918.221327735435</v>
+        <v>713.3466345960744</v>
       </c>
       <c r="AS66">
-        <v>1919.215220089871</v>
+        <v>700.9837875110862</v>
       </c>
       <c r="AT66">
-        <v>2145.838403126002</v>
+        <v>928.5986034812869</v>
       </c>
       <c r="AU66">
-        <v>1879.219515704873</v>
+        <v>659.450798847904</v>
       </c>
       <c r="AV66">
-        <v>1982.585165971278</v>
+        <v>782.4328821966772</v>
       </c>
       <c r="AW66">
-        <v>1945.008445741845</v>
+        <v>723.4489916878601</v>
       </c>
       <c r="AX66">
-        <v>1648.093605424768</v>
+        <v>1041.954649165149</v>
       </c>
       <c r="AY66">
-        <v>1778.298568534126</v>
+        <v>1217.000886996791</v>
       </c>
       <c r="AZ66">
-        <v>1620.635503013884</v>
+        <v>1002.302912955882</v>
       </c>
       <c r="BA66">
-        <v>1758.620495266418</v>
+        <v>1181.290262685341</v>
       </c>
       <c r="BB66">
-        <v>1708.143683762172</v>
+        <v>1023.312355544198</v>
       </c>
       <c r="BC66">
-        <v>1828.318737500519</v>
+        <v>1235.138877014722</v>
       </c>
       <c r="BD66">
-        <v>1895.037203664009</v>
+        <v>1260.297926961561</v>
       </c>
       <c r="BE66">
-        <v>1873.578614926727</v>
+        <v>1185.195481972286</v>
       </c>
       <c r="BF66">
-        <v>1712.308072015636</v>
+        <v>1006.393087116311</v>
       </c>
       <c r="BG66">
-        <v>727.1109283078251</v>
+        <v>1163.812548768141</v>
       </c>
       <c r="BH66">
-        <v>1980.803794627939</v>
+        <v>1804.20225695649</v>
       </c>
       <c r="BI66">
-        <v>1718.833623049343</v>
+        <v>632.2000152834812</v>
       </c>
       <c r="BJ66">
-        <v>1866.505398269182</v>
+        <v>622.0381906087567</v>
       </c>
       <c r="BK66">
-        <v>1662.535417522236</v>
+        <v>702.4369588433714</v>
       </c>
       <c r="BL66">
-        <v>1204.956276867916</v>
+        <v>766.9677249147767</v>
       </c>
       <c r="BM66">
-        <v>1199.979992610751</v>
+        <v>1134.265647738116</v>
       </c>
       <c r="BN66">
         <v>0</v>
       </c>
       <c r="BO66">
-        <v>1933.179065320382</v>
+        <v>1005.858806250503</v>
       </c>
       <c r="BP66">
-        <v>1222.245327710376</v>
-      </c>
-      <c r="BQ66">
-        <v>331.7277345009884</v>
-      </c>
-      <c r="BR66">
-        <v>607.5429755164035</v>
+        <v>825.9266321873913</v>
       </c>
     </row>
-    <row r="67" spans="1:70">
+    <row r="67" spans="1:68">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1180.60240250832</v>
+        <v>1069.673829671946</v>
       </c>
       <c r="C67">
-        <v>1749.66684561782</v>
+        <v>346.7223726644927</v>
       </c>
       <c r="D67">
-        <v>1825.787099477719</v>
+        <v>443.7873384529037</v>
       </c>
       <c r="E67">
-        <v>1760.219476679308</v>
+        <v>266.9479503556051</v>
       </c>
       <c r="F67">
-        <v>1480.27952496301</v>
+        <v>402.3404655757599</v>
       </c>
       <c r="G67">
-        <v>1804.830358130287</v>
+        <v>475.1142945936327</v>
       </c>
       <c r="H67">
-        <v>1798.206702812478</v>
+        <v>417.1524477640356</v>
       </c>
       <c r="I67">
-        <v>2031.804640597185</v>
+        <v>608.9088984949219</v>
       </c>
       <c r="J67">
-        <v>2133.397988342114</v>
+        <v>574.9702278694658</v>
       </c>
       <c r="K67">
-        <v>1967.939085959153</v>
+        <v>705.8934211529389</v>
       </c>
       <c r="L67">
-        <v>945.7351374000242</v>
+        <v>927.0831229492069</v>
       </c>
       <c r="M67">
-        <v>793.7071305310558</v>
+        <v>1011.440355481226</v>
       </c>
       <c r="N67">
-        <v>868.5741173677112</v>
+        <v>942.1825315390148</v>
       </c>
       <c r="O67">
-        <v>216.4542220828988</v>
+        <v>1571.944985002995</v>
       </c>
       <c r="P67">
-        <v>128.1708935512152</v>
+        <v>1571.913335879728</v>
       </c>
       <c r="Q67">
-        <v>155.2855232372004</v>
+        <v>1742.190246496454</v>
       </c>
       <c r="R67">
-        <v>147.3921995036304</v>
+        <v>1704.968237658197</v>
       </c>
       <c r="S67">
-        <v>170.9385300207406</v>
+        <v>1745.671849475585</v>
       </c>
       <c r="T67">
-        <v>98.7508434309066</v>
+        <v>1622.288807551066</v>
       </c>
       <c r="U67">
-        <v>1826.78795321761</v>
+        <v>160.4465130983236</v>
       </c>
       <c r="V67">
-        <v>1892.380846482479</v>
+        <v>226.5117219539912</v>
       </c>
       <c r="W67">
-        <v>1406.745271505975</v>
+        <v>902.0435164599671</v>
       </c>
       <c r="X67">
-        <v>1500.189933498288</v>
+        <v>879.4424627735349</v>
       </c>
       <c r="Y67">
-        <v>1367.498097007698</v>
+        <v>1003.43997318293</v>
       </c>
       <c r="Z67">
-        <v>1460.418355654846</v>
+        <v>982.4872280090259</v>
       </c>
       <c r="AA67">
-        <v>1518.315746632483</v>
+        <v>1149.014119009315</v>
       </c>
       <c r="AB67">
-        <v>1387.130860363598</v>
+        <v>1206.919403092181</v>
       </c>
       <c r="AC67">
-        <v>1564.176624434621</v>
+        <v>1018.064184402429</v>
       </c>
       <c r="AD67">
-        <v>2353.008852184749</v>
+        <v>1795.085394285433</v>
       </c>
       <c r="AE67">
-        <v>2492.6726695803</v>
+        <v>1985.31772195963</v>
       </c>
       <c r="AF67">
-        <v>2350.302213077927</v>
+        <v>1778.415703144768</v>
       </c>
       <c r="AG67">
-        <v>2419.037839607917</v>
+        <v>1821.403288472187</v>
       </c>
       <c r="AH67">
-        <v>2392.719408710603</v>
+        <v>1927.100182952162</v>
       </c>
       <c r="AI67">
-        <v>2489.858373360032</v>
+        <v>1809.463699762622</v>
       </c>
       <c r="AJ67">
-        <v>2387.32512546599</v>
+        <v>1903.920185337442</v>
       </c>
       <c r="AK67">
-        <v>1792.210079651025</v>
+        <v>176.2210248103138</v>
       </c>
       <c r="AL67">
-        <v>1949.62048145234</v>
+        <v>259.9001113722245</v>
       </c>
       <c r="AM67">
-        <v>1817.951807826627</v>
+        <v>128.4924778932623</v>
       </c>
       <c r="AN67">
-        <v>1940.233092437341</v>
+        <v>256.26030208563</v>
       </c>
       <c r="AO67">
-        <v>1823.853035111479</v>
+        <v>154.7844485086651</v>
       </c>
       <c r="AP67">
-        <v>1729.28504030792</v>
+        <v>176.1312133457984</v>
       </c>
       <c r="AQ67">
-        <v>516.3897285567141</v>
+        <v>1618.127933073111</v>
       </c>
       <c r="AR67">
-        <v>688.702285829508</v>
+        <v>1713.422201065729</v>
       </c>
       <c r="AS67">
-        <v>587.6112283957758</v>
+        <v>1706.735126180023</v>
       </c>
       <c r="AT67">
-        <v>454.9605986867981</v>
+        <v>1919.481347706202</v>
       </c>
       <c r="AU67">
-        <v>562.7104101472937</v>
+        <v>1665.306561987023</v>
       </c>
       <c r="AV67">
-        <v>733.3057298041074</v>
+        <v>1780.083163324025</v>
       </c>
       <c r="AW67">
-        <v>458.3181272607993</v>
+        <v>1723.485543687579</v>
       </c>
       <c r="AX67">
-        <v>1642.483906833701</v>
+        <v>1562.690902239529</v>
       </c>
       <c r="AY67">
-        <v>1799.337080559871</v>
+        <v>1708.175356026254</v>
       </c>
       <c r="AZ67">
-        <v>1606.99231781856</v>
+        <v>1531.336232874713</v>
       </c>
       <c r="BA67">
-        <v>1762.904640273456</v>
+        <v>1684.409133695269</v>
       </c>
       <c r="BB67">
-        <v>1582.333716622415</v>
+        <v>1610.3959444082</v>
       </c>
       <c r="BC67">
-        <v>1795.365293849677</v>
+        <v>1754.000656706688</v>
       </c>
       <c r="BD67">
-        <v>1789.555046728398</v>
+        <v>1815.06649817406</v>
       </c>
       <c r="BE67">
-        <v>1697.431198331079</v>
+        <v>1782.123515601418</v>
       </c>
       <c r="BF67">
-        <v>1556.803831861633</v>
+        <v>1610.653425017383</v>
       </c>
       <c r="BG67">
-        <v>2123.169966883017</v>
+        <v>554.8423859225741</v>
       </c>
       <c r="BH67">
-        <v>644.7264663011945</v>
+        <v>1902.341888641211</v>
       </c>
       <c r="BI67">
-        <v>1723.073257812295</v>
+        <v>1088.941825254025</v>
       </c>
       <c r="BJ67">
-        <v>2507.266083355122</v>
+        <v>1082.280958184774</v>
       </c>
       <c r="BK67">
-        <v>286.0861752077946</v>
+        <v>1707.261361446016</v>
       </c>
       <c r="BL67">
-        <v>1374.951252136354</v>
+        <v>1771.518635252126</v>
       </c>
       <c r="BM67">
-        <v>1366.378276819574</v>
+        <v>1641.304099054034</v>
       </c>
       <c r="BN67">
-        <v>1933.179065320382</v>
+        <v>1005.858806250503</v>
       </c>
       <c r="BO67">
         <v>0</v>
       </c>
       <c r="BP67">
-        <v>812.9841585954681</v>
-      </c>
-      <c r="BQ67">
-        <v>1612.191404364765</v>
-      </c>
-      <c r="BR67">
-        <v>1536.824942117152</v>
+        <v>194.9482707631402</v>
       </c>
     </row>
-    <row r="68" spans="1:70">
+    <row r="68" spans="1:68">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>444.4807380341777</v>
+        <v>875.3326860551396</v>
       </c>
       <c r="C68">
-        <v>973.9035770057666</v>
+        <v>281.8557466496166</v>
       </c>
       <c r="D68">
-        <v>1036.697943582787</v>
+        <v>388.5957527578344</v>
       </c>
       <c r="E68">
-        <v>1001.829226493454</v>
+        <v>242.8607949358861</v>
       </c>
       <c r="F68">
-        <v>704.2541342233352</v>
+        <v>216.5281335864917</v>
       </c>
       <c r="G68">
-        <v>1010.164530176827</v>
+        <v>401.8022265801152</v>
       </c>
       <c r="H68">
-        <v>1011.952212190491</v>
+        <v>356.4128658646335</v>
       </c>
       <c r="I68">
-        <v>1233.979914218695</v>
+        <v>593.3458260415675</v>
       </c>
       <c r="J68">
-        <v>1354.512967436215</v>
+        <v>622.3797869874658</v>
       </c>
       <c r="K68">
-        <v>1157.902523535575</v>
+        <v>640.5593784610419</v>
       </c>
       <c r="L68">
-        <v>133.6379608907166</v>
+        <v>739.4148296763145</v>
       </c>
       <c r="M68">
-        <v>23.11806531000909</v>
+        <v>833.3799800980446</v>
       </c>
       <c r="N68">
-        <v>65.00493880913098</v>
+        <v>761.3762287572567</v>
       </c>
       <c r="O68">
-        <v>633.6633559695043</v>
+        <v>1413.261873937609</v>
       </c>
       <c r="P68">
-        <v>684.9509788719952</v>
+        <v>1423.443362994366</v>
       </c>
       <c r="Q68">
-        <v>808.506427460537</v>
+        <v>1586.19423963258</v>
       </c>
       <c r="R68">
-        <v>772.6005555114455</v>
+        <v>1548.929214007561</v>
       </c>
       <c r="S68">
-        <v>807.0846362137572</v>
+        <v>1588.588022916834</v>
       </c>
       <c r="T68">
-        <v>721.7219235503345</v>
+        <v>1471.937605663018</v>
       </c>
       <c r="U68">
-        <v>1162.381024826243</v>
+        <v>354.7885270290858</v>
       </c>
       <c r="V68">
-        <v>1169.956084851428</v>
+        <v>349.3362755803038</v>
       </c>
       <c r="W68">
-        <v>612.2475057228771</v>
+        <v>717.3088186006637</v>
       </c>
       <c r="X68">
-        <v>700.4811002457104</v>
+        <v>703.4310889186071</v>
       </c>
       <c r="Y68">
-        <v>597.9459394575954</v>
+        <v>815.8849633015492</v>
       </c>
       <c r="Z68">
-        <v>681.2218830004341</v>
+        <v>801.5874740745116</v>
       </c>
       <c r="AA68">
-        <v>780.4950058718167</v>
+        <v>970.1478464378022</v>
       </c>
       <c r="AB68">
-        <v>688.5144785931498</v>
+        <v>1019.231338935013</v>
       </c>
       <c r="AC68">
-        <v>787.0836537626774</v>
+        <v>846.0562037320598</v>
       </c>
       <c r="AD68">
-        <v>1654.130785129311</v>
+        <v>1663.221056841328</v>
       </c>
       <c r="AE68">
-        <v>1817.903394358936</v>
+        <v>1853.198396556765</v>
       </c>
       <c r="AF68">
-        <v>1647.193181815159</v>
+        <v>1647.653686745026</v>
       </c>
       <c r="AG68">
-        <v>1712.919267080712</v>
+        <v>1695.06503651014</v>
       </c>
       <c r="AH68">
-        <v>1724.943498316074</v>
+        <v>1788.903873846146</v>
       </c>
       <c r="AI68">
-        <v>1765.396697168663</v>
+        <v>1693.204077877321</v>
       </c>
       <c r="AJ68">
-        <v>1713.483312442349</v>
+        <v>1766.974672022462</v>
       </c>
       <c r="AK68">
-        <v>1061.191576363413</v>
+        <v>246.8295854684929</v>
       </c>
       <c r="AL68">
-        <v>1249.076219951066</v>
+        <v>423.1500011789162</v>
       </c>
       <c r="AM68">
-        <v>1122.977292471968</v>
+        <v>298.7054161400548</v>
       </c>
       <c r="AN68">
-        <v>1261.071511612498</v>
+        <v>439.6885159457224</v>
       </c>
       <c r="AO68">
-        <v>1157.605310892363</v>
+        <v>348.853059895189</v>
       </c>
       <c r="AP68">
-        <v>992.264037407499</v>
+        <v>186.6879274806538</v>
       </c>
       <c r="AQ68">
-        <v>613.2934335921838</v>
+        <v>1439.205791289934</v>
       </c>
       <c r="AR68">
-        <v>713.3466345960744</v>
+        <v>1527.435865812011</v>
       </c>
       <c r="AS68">
-        <v>700.9837875110862</v>
+        <v>1524.814759965559</v>
       </c>
       <c r="AT68">
-        <v>928.5986034812869</v>
+        <v>1748.441542620909</v>
       </c>
       <c r="AU68">
-        <v>659.450798847904</v>
+        <v>1484.249792398447</v>
       </c>
       <c r="AV68">
-        <v>782.4328821966772</v>
+        <v>1593.128919134864</v>
       </c>
       <c r="AW68">
-        <v>723.4489916878601</v>
+        <v>1548.013218486245</v>
       </c>
       <c r="AX68">
-        <v>1041.954649165149</v>
+        <v>1382.090346758109</v>
       </c>
       <c r="AY68">
-        <v>1217.000886996791</v>
+        <v>1532.391590139447</v>
       </c>
       <c r="AZ68">
-        <v>1002.302912955882</v>
+        <v>1349.57094326333</v>
       </c>
       <c r="BA68">
-        <v>1181.290262685341</v>
+        <v>1507.207548384078</v>
       </c>
       <c r="BB68">
-        <v>1023.312355544198</v>
+        <v>1425.631896091546</v>
       </c>
       <c r="BC68">
-        <v>1235.138877014722</v>
+        <v>1576.439284534891</v>
       </c>
       <c r="BD68">
-        <v>1260.297926961561</v>
+        <v>1635.252399343817</v>
       </c>
       <c r="BE68">
-        <v>1185.195481972286</v>
+        <v>1598.673233136969</v>
       </c>
       <c r="BF68">
-        <v>1006.393087116311</v>
+        <v>1424.753052150079</v>
       </c>
       <c r="BG68">
-        <v>1311.4793491402</v>
+        <v>526.1593743553841</v>
       </c>
       <c r="BH68">
-        <v>766.9677249147767</v>
+        <v>1779.282579994015</v>
       </c>
       <c r="BI68">
-        <v>1134.265647738116</v>
+        <v>901.4763599118126</v>
       </c>
       <c r="BJ68">
-        <v>1804.20225695649</v>
+        <v>894.3902064910091</v>
       </c>
       <c r="BK68">
-        <v>528.577815642534</v>
+        <v>1528.338003054886</v>
       </c>
       <c r="BL68">
-        <v>632.2000152834812</v>
+        <v>1587.814679023846</v>
       </c>
       <c r="BM68">
-        <v>622.0381906087567</v>
+        <v>1463.097203546158</v>
       </c>
       <c r="BN68">
-        <v>1222.245327710376</v>
+        <v>825.9266321873913</v>
       </c>
       <c r="BO68">
-        <v>812.9841585954681</v>
+        <v>194.9482707631402</v>
       </c>
       <c r="BP68">
-        <v>0</v>
-      </c>
-      <c r="BQ68">
-        <v>942.5248444924624</v>
-      </c>
-      <c r="BR68">
-        <v>737.0963783065009</v>
-      </c>
-    </row>
-    <row r="69" spans="1:70">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>1034.808647551286</v>
-      </c>
-      <c r="C69">
-        <v>387.1126308176733</v>
-      </c>
-      <c r="D69">
-        <v>490.4630131188837</v>
-      </c>
-      <c r="E69">
-        <v>316.7267184865037</v>
-      </c>
-      <c r="F69">
-        <v>384.5344932398114</v>
-      </c>
-      <c r="G69">
-        <v>516.2034120169214</v>
-      </c>
-      <c r="H69">
-        <v>461.2946322894687</v>
-      </c>
-      <c r="I69">
-        <v>670.2260631001438</v>
-      </c>
-      <c r="J69">
-        <v>650.34240808982</v>
-      </c>
-      <c r="K69">
-        <v>752.8053018834038</v>
-      </c>
-      <c r="L69">
-        <v>870.479750499576</v>
-      </c>
-      <c r="M69">
-        <v>946.8877902439565</v>
-      </c>
-      <c r="N69">
-        <v>879.7016047910656</v>
-      </c>
-      <c r="O69">
-        <v>1497.649390120326</v>
-      </c>
-      <c r="P69">
-        <v>1494.831831345695</v>
-      </c>
-      <c r="Q69">
-        <v>1666.905293864552</v>
-      </c>
-      <c r="R69">
-        <v>1629.730832981391</v>
-      </c>
-      <c r="S69">
-        <v>1670.702962661739</v>
-      </c>
-      <c r="T69">
-        <v>1545.609546425498</v>
-      </c>
-      <c r="U69">
-        <v>221.0870145999965</v>
-      </c>
-      <c r="V69">
-        <v>308.5785441131584</v>
-      </c>
-      <c r="W69">
-        <v>884.9870945386531</v>
-      </c>
-      <c r="X69">
-        <v>871.1660741019252</v>
-      </c>
-      <c r="Y69">
-        <v>982.7376934263743</v>
-      </c>
-      <c r="Z69">
-        <v>969.5935005477082</v>
-      </c>
-      <c r="AA69">
-        <v>1138.15444796071</v>
-      </c>
-      <c r="AB69">
-        <v>1185.876739776738</v>
-      </c>
-      <c r="AC69">
-        <v>1013.294098261188</v>
-      </c>
-      <c r="AD69">
-        <v>1817.042873350251</v>
-      </c>
-      <c r="AE69">
-        <v>2007.286150522691</v>
-      </c>
-      <c r="AF69">
-        <v>1800.9430894739</v>
-      </c>
-      <c r="AG69">
-        <v>1846.265021529858</v>
-      </c>
-      <c r="AH69">
-        <v>1945.690763537709</v>
-      </c>
-      <c r="AI69">
-        <v>1839.271944452748</v>
-      </c>
-      <c r="AJ69">
-        <v>1923.195381497188</v>
-      </c>
-      <c r="AK69">
-        <v>246.967028917489</v>
-      </c>
-      <c r="AL69">
-        <v>340.4672638074063</v>
-      </c>
-      <c r="AM69">
-        <v>210.0850893114726</v>
-      </c>
-      <c r="AN69">
-        <v>328.985368791492</v>
-      </c>
-      <c r="AO69">
-        <v>216.8669944876199</v>
-      </c>
-      <c r="AP69">
-        <v>228.265848206302</v>
-      </c>
-      <c r="AQ69">
-        <v>1552.765868729289</v>
-      </c>
-      <c r="AR69">
-        <v>1653.341407041925</v>
-      </c>
-      <c r="AS69">
-        <v>1643.301961615778</v>
-      </c>
-      <c r="AT69">
-        <v>1849.536534613175</v>
-      </c>
-      <c r="AU69">
-        <v>1601.30530878877</v>
-      </c>
-      <c r="AV69">
-        <v>1720.868217037627</v>
-      </c>
-      <c r="AW69">
-        <v>1655.964264641351</v>
-      </c>
-      <c r="AX69">
-        <v>1550.060035708327</v>
-      </c>
-      <c r="AY69">
-        <v>1700.300435458209</v>
-      </c>
-      <c r="AZ69">
-        <v>1517.458816117571</v>
-      </c>
-      <c r="BA69">
-        <v>1675.193041806343</v>
-      </c>
-      <c r="BB69">
-        <v>1593.030267859241</v>
-      </c>
-      <c r="BC69">
-        <v>1744.439554108517</v>
-      </c>
-      <c r="BD69">
-        <v>1803.244537488825</v>
-      </c>
-      <c r="BE69">
-        <v>1766.303246090696</v>
-      </c>
-      <c r="BF69">
-        <v>1591.849810957905</v>
-      </c>
-      <c r="BG69">
-        <v>888.755294252898</v>
-      </c>
-      <c r="BH69">
-        <v>1709.38400248358</v>
-      </c>
-      <c r="BI69">
-        <v>1631.108315038781</v>
-      </c>
-      <c r="BJ69">
-        <v>1928.928433648853</v>
-      </c>
-      <c r="BK69">
-        <v>1347.333836389808</v>
-      </c>
-      <c r="BL69">
-        <v>1068.292415143964</v>
-      </c>
-      <c r="BM69">
-        <v>1061.043291871934</v>
-      </c>
-      <c r="BN69">
-        <v>331.7277345009884</v>
-      </c>
-      <c r="BO69">
-        <v>1612.191404364765</v>
-      </c>
-      <c r="BP69">
-        <v>942.5248444924624</v>
-      </c>
-      <c r="BQ69">
-        <v>0</v>
-      </c>
-      <c r="BR69">
-        <v>500.0636889195465</v>
-      </c>
-    </row>
-    <row r="70" spans="1:70">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>621.4062436280211</v>
-      </c>
-      <c r="C70">
-        <v>268.1261509225145</v>
-      </c>
-      <c r="D70">
-        <v>304.4883387520674</v>
-      </c>
-      <c r="E70">
-        <v>331.3872858469886</v>
-      </c>
-      <c r="F70">
-        <v>134.6174600988821</v>
-      </c>
-      <c r="G70">
-        <v>273.8122750699955</v>
-      </c>
-      <c r="H70">
-        <v>283.9887797343327</v>
-      </c>
-      <c r="I70">
-        <v>497.0419249226699</v>
-      </c>
-      <c r="J70">
-        <v>626.248006127884</v>
-      </c>
-      <c r="K70">
-        <v>443.2694238716958</v>
-      </c>
-      <c r="L70">
-        <v>615.3777366815825</v>
-      </c>
-      <c r="M70">
-        <v>752.7420169045362</v>
-      </c>
-      <c r="N70">
-        <v>675.3365699006796</v>
-      </c>
-      <c r="O70">
-        <v>1369.287858177844</v>
-      </c>
-      <c r="P70">
-        <v>1409.124141022815</v>
-      </c>
-      <c r="Q70">
-        <v>1544.649817828112</v>
-      </c>
-      <c r="R70">
-        <v>1508.398981740221</v>
-      </c>
-      <c r="S70">
-        <v>1543.684613722091</v>
-      </c>
-      <c r="T70">
-        <v>1450.568619378334</v>
-      </c>
-      <c r="U70">
-        <v>646.1519116770977</v>
-      </c>
-      <c r="V70">
-        <v>543.1214136817222</v>
-      </c>
-      <c r="W70">
-        <v>408.7530204789524</v>
-      </c>
-      <c r="X70">
-        <v>376.7156663365799</v>
-      </c>
-      <c r="Y70">
-        <v>515.0970318050553</v>
-      </c>
-      <c r="Z70">
-        <v>482.4655056298339</v>
-      </c>
-      <c r="AA70">
-        <v>646.8579662076676</v>
-      </c>
-      <c r="AB70">
-        <v>716.1243812304746</v>
-      </c>
-      <c r="AC70">
-        <v>515.1356114079551</v>
-      </c>
-      <c r="AD70">
-        <v>1337.40547894484</v>
-      </c>
-      <c r="AE70">
-        <v>1526.651671161181</v>
-      </c>
-      <c r="AF70">
-        <v>1322.595334219646</v>
-      </c>
-      <c r="AG70">
-        <v>1372.809758301545</v>
-      </c>
-      <c r="AH70">
-        <v>1459.210688794982</v>
-      </c>
-      <c r="AI70">
-        <v>1378.798253609775</v>
-      </c>
-      <c r="AJ70">
-        <v>1437.95905681006</v>
-      </c>
-      <c r="AK70">
-        <v>439.3896843222967</v>
-      </c>
-      <c r="AL70">
-        <v>648.2479970599596</v>
-      </c>
-      <c r="AM70">
-        <v>559.7390294065585</v>
-      </c>
-      <c r="AN70">
-        <v>695.3063217449047</v>
-      </c>
-      <c r="AO70">
-        <v>639.3441541407116</v>
-      </c>
-      <c r="AP70">
-        <v>375.2797468496436</v>
-      </c>
-      <c r="AQ70">
-        <v>1320.154510412005</v>
-      </c>
-      <c r="AR70">
-        <v>1370.857434507511</v>
-      </c>
-      <c r="AS70">
-        <v>1389.410069657129</v>
-      </c>
-      <c r="AT70">
-        <v>1652.876467613944</v>
-      </c>
-      <c r="AU70">
-        <v>1354.079896094632</v>
-      </c>
-      <c r="AV70">
-        <v>1429.458424963049</v>
-      </c>
-      <c r="AW70">
-        <v>1440.376727870849</v>
-      </c>
-      <c r="AX70">
-        <v>1060.838781185056</v>
-      </c>
-      <c r="AY70">
-        <v>1205.014900850966</v>
-      </c>
-      <c r="AZ70">
-        <v>1030.287414824492</v>
-      </c>
-      <c r="BA70">
-        <v>1181.341013041518</v>
-      </c>
-      <c r="BB70">
-        <v>1112.184019222322</v>
-      </c>
-      <c r="BC70">
-        <v>1250.970959969353</v>
-      </c>
-      <c r="BD70">
-        <v>1312.639295248296</v>
-      </c>
-      <c r="BE70">
-        <v>1282.127037490664</v>
-      </c>
-      <c r="BF70">
-        <v>1114.050439784723</v>
-      </c>
-      <c r="BG70">
-        <v>603.9891222317212</v>
-      </c>
-      <c r="BH70">
-        <v>1441.990719494167</v>
-      </c>
-      <c r="BI70">
-        <v>1138.439630838591</v>
-      </c>
-      <c r="BJ70">
-        <v>1459.03531867059</v>
-      </c>
-      <c r="BK70">
-        <v>1250.982464509929</v>
-      </c>
-      <c r="BL70">
-        <v>598.9607709428908</v>
-      </c>
-      <c r="BM70">
-        <v>593.5516610676601</v>
-      </c>
-      <c r="BN70">
-        <v>607.5429755164035</v>
-      </c>
-      <c r="BO70">
-        <v>1536.824942117152</v>
-      </c>
-      <c r="BP70">
-        <v>737.0963783065009</v>
-      </c>
-      <c r="BQ70">
-        <v>500.0636889195465</v>
-      </c>
-      <c r="BR70">
         <v>0</v>
       </c>
     </row>
